--- a/FG2405_test.xlsx
+++ b/FG2405_test.xlsx
@@ -545,19 +545,19 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>1321021</v>
+        <v>51486947</v>
       </c>
       <c r="C2" t="n">
-        <v>1704856500</v>
+        <v>1710990900</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FG24051704856500</t>
+          <t>FG24051710990900</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-01-10 11:15:00</t>
+          <t>2024-03-21 11:15:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -566,28 +566,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1839</v>
+        <v>1538</v>
       </c>
       <c r="H2" t="n">
-        <v>1839</v>
+        <v>1542</v>
       </c>
       <c r="I2" t="n">
-        <v>1829</v>
+        <v>1537</v>
       </c>
       <c r="J2" t="n">
-        <v>1831</v>
+        <v>1540</v>
       </c>
       <c r="K2" t="n">
-        <v>26745</v>
+        <v>10834</v>
       </c>
       <c r="L2" t="n">
-        <v>725251</v>
+        <v>678054</v>
       </c>
       <c r="M2" t="n">
-        <v>1831</v>
+        <v>1540</v>
       </c>
       <c r="N2" t="n">
-        <v>1831</v>
+        <v>1540</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>98</v>
       </c>
       <c r="B3" t="n">
-        <v>1345549</v>
+        <v>51517607</v>
       </c>
       <c r="C3" t="n">
-        <v>1704857400</v>
+        <v>1710991800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FG24051704857400</t>
+          <t>FG24051710991800</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-01-10 11:30:00</t>
+          <t>2024-03-21 11:30:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -638,31 +638,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1830</v>
+        <v>1541</v>
       </c>
       <c r="H3" t="n">
-        <v>1835</v>
+        <v>1549</v>
       </c>
       <c r="I3" t="n">
-        <v>1822</v>
+        <v>1540</v>
       </c>
       <c r="J3" t="n">
-        <v>1827</v>
+        <v>1548</v>
       </c>
       <c r="K3" t="n">
-        <v>51723</v>
+        <v>33577</v>
       </c>
       <c r="L3" t="n">
-        <v>722197</v>
+        <v>678100</v>
       </c>
       <c r="M3" t="n">
-        <v>1829.666666666667</v>
+        <v>1542.666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>1830.272727272727</v>
+        <v>1541.454545454545</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6060606060605096</v>
+        <v>1.212121212121247</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" t="inlineStr"/>
     </row>
@@ -689,19 +689,19 @@
         <v>97</v>
       </c>
       <c r="B4" t="n">
-        <v>1409935</v>
+        <v>51552355</v>
       </c>
       <c r="C4" t="n">
-        <v>1704865500</v>
+        <v>1710999900</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FG24051704865500</t>
+          <t>FG24051710999900</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-01-10 13:45:00</t>
+          <t>2024-03-21 13:45:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1825</v>
+        <v>1549</v>
       </c>
       <c r="H4" t="n">
-        <v>1831</v>
+        <v>1560</v>
       </c>
       <c r="I4" t="n">
-        <v>1819</v>
+        <v>1546</v>
       </c>
       <c r="J4" t="n">
-        <v>1821</v>
+        <v>1557</v>
       </c>
       <c r="K4" t="n">
-        <v>53512</v>
+        <v>75163</v>
       </c>
       <c r="L4" t="n">
-        <v>713633</v>
+        <v>673266</v>
       </c>
       <c r="M4" t="n">
-        <v>1826.777777777778</v>
+        <v>1547.444444444445</v>
       </c>
       <c r="N4" t="n">
-        <v>1828.586776859504</v>
+        <v>1544.280991735537</v>
       </c>
       <c r="O4" t="n">
-        <v>1.808999081725915</v>
+        <v>3.163452708907471</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4" t="inlineStr"/>
     </row>
@@ -761,19 +761,19 @@
         <v>96</v>
       </c>
       <c r="B5" t="n">
-        <v>1440595</v>
+        <v>51583015</v>
       </c>
       <c r="C5" t="n">
-        <v>1704866400</v>
+        <v>1711000800</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FG24051704866400</t>
+          <t>FG24051711000800</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-01-10 14:00:00</t>
+          <t>2024-03-21 14:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1821</v>
+        <v>1557</v>
       </c>
       <c r="H5" t="n">
-        <v>1828</v>
+        <v>1559</v>
       </c>
       <c r="I5" t="n">
-        <v>1820</v>
+        <v>1552</v>
       </c>
       <c r="J5" t="n">
-        <v>1827</v>
+        <v>1553</v>
       </c>
       <c r="K5" t="n">
-        <v>24817</v>
+        <v>34605</v>
       </c>
       <c r="L5" t="n">
-        <v>711656</v>
+        <v>669721</v>
       </c>
       <c r="M5" t="n">
-        <v>1826.851851851852</v>
+        <v>1549.296296296297</v>
       </c>
       <c r="N5" t="n">
-        <v>1828.298271975958</v>
+        <v>1545.866265965439</v>
       </c>
       <c r="O5" t="n">
-        <v>1.446420124105543</v>
+        <v>3.430030330857335</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V5" t="inlineStr"/>
     </row>
@@ -833,19 +833,19 @@
         <v>95</v>
       </c>
       <c r="B6" t="n">
-        <v>1473299</v>
+        <v>51614697</v>
       </c>
       <c r="C6" t="n">
-        <v>1704867300</v>
+        <v>1711001700</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FG24051704867300</t>
+          <t>FG24051711001700</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-01-10 14:15:00</t>
+          <t>2024-03-21 14:15:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -854,31 +854,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1826</v>
+        <v>1554</v>
       </c>
       <c r="H6" t="n">
-        <v>1828</v>
+        <v>1562</v>
       </c>
       <c r="I6" t="n">
-        <v>1801</v>
+        <v>1552</v>
       </c>
       <c r="J6" t="n">
-        <v>1803</v>
+        <v>1558</v>
       </c>
       <c r="K6" t="n">
-        <v>92526</v>
+        <v>33350</v>
       </c>
       <c r="L6" t="n">
-        <v>707068</v>
+        <v>672013</v>
       </c>
       <c r="M6" t="n">
-        <v>1818.901234567902</v>
+        <v>1552.197530864198</v>
       </c>
       <c r="N6" t="n">
-        <v>1823.698586162147</v>
+        <v>1548.072399426268</v>
       </c>
       <c r="O6" t="n">
-        <v>4.797351594245356</v>
+        <v>4.12513143792944</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V6" t="inlineStr"/>
     </row>
@@ -905,19 +905,19 @@
         <v>94</v>
       </c>
       <c r="B7" t="n">
-        <v>1499871</v>
+        <v>51642291</v>
       </c>
       <c r="C7" t="n">
-        <v>1704868200</v>
+        <v>1711002600</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FG24051704868200</t>
+          <t>FG24051711002600</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-01-10 14:30:00</t>
+          <t>2024-03-21 14:30:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -926,31 +926,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1804</v>
+        <v>1559</v>
       </c>
       <c r="H7" t="n">
-        <v>1808</v>
+        <v>1572</v>
       </c>
       <c r="I7" t="n">
-        <v>1788</v>
+        <v>1557</v>
       </c>
       <c r="J7" t="n">
-        <v>1789</v>
+        <v>1564</v>
       </c>
       <c r="K7" t="n">
-        <v>118512</v>
+        <v>89302</v>
       </c>
       <c r="L7" t="n">
-        <v>698184</v>
+        <v>672871</v>
       </c>
       <c r="M7" t="n">
-        <v>1808.934156378601</v>
+        <v>1556.131687242799</v>
       </c>
       <c r="N7" t="n">
-        <v>1817.389752314484</v>
+        <v>1550.96832680331</v>
       </c>
       <c r="O7" t="n">
-        <v>8.455595935882684</v>
+        <v>5.163360439488088</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V7" t="inlineStr"/>
     </row>
@@ -977,19 +977,19 @@
         <v>93</v>
       </c>
       <c r="B8" t="n">
-        <v>1530531</v>
+        <v>51672951</v>
       </c>
       <c r="C8" t="n">
-        <v>1704869100</v>
+        <v>1711003500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FG24051704869100</t>
+          <t>FG24051711003500</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-01-10 14:45:00</t>
+          <t>2024-03-21 14:45:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1789</v>
+        <v>1564</v>
       </c>
       <c r="H8" t="n">
-        <v>1793</v>
+        <v>1565</v>
       </c>
       <c r="I8" t="n">
-        <v>1779</v>
+        <v>1554</v>
       </c>
       <c r="J8" t="n">
-        <v>1781</v>
+        <v>1556</v>
       </c>
       <c r="K8" t="n">
-        <v>96950</v>
+        <v>48649</v>
       </c>
       <c r="L8" t="n">
-        <v>684509</v>
+        <v>664473</v>
       </c>
       <c r="M8" t="n">
-        <v>1799.622770919068</v>
+        <v>1556.087791495199</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.77343371185</v>
+        <v>1551.883176475436</v>
       </c>
       <c r="O8" t="n">
-        <v>11.15066279278267</v>
+        <v>4.204615019763423</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V8" t="inlineStr"/>
     </row>
@@ -1049,19 +1049,19 @@
         <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>1553015</v>
+        <v>51703611</v>
       </c>
       <c r="C9" t="n">
-        <v>1704870000</v>
+        <v>1711004400</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FG24051704870000</t>
+          <t>FG24051711004400</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-01-10 15:00:00</t>
+          <t>2024-03-21 15:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1781</v>
+        <v>1556</v>
       </c>
       <c r="H9" t="n">
-        <v>1785</v>
+        <v>1559</v>
       </c>
       <c r="I9" t="n">
-        <v>1758</v>
+        <v>1551</v>
       </c>
       <c r="J9" t="n">
-        <v>1767</v>
+        <v>1555</v>
       </c>
       <c r="K9" t="n">
-        <v>129588</v>
+        <v>48380</v>
       </c>
       <c r="L9" t="n">
-        <v>678161</v>
+        <v>666063</v>
       </c>
       <c r="M9" t="n">
-        <v>1788.748513946045</v>
+        <v>1555.725194330133</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.814627582423</v>
+        <v>1552.44987166172</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06611363637762</v>
+        <v>3.275322668412855</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V9" t="inlineStr"/>
     </row>
@@ -1121,19 +1121,19 @@
         <v>91</v>
       </c>
       <c r="B10" t="n">
-        <v>2192787</v>
+        <v>51778217</v>
       </c>
       <c r="C10" t="n">
-        <v>1704892500</v>
+        <v>1711026900</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FG24051704892500</t>
+          <t>FG24051711026900</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-01-10 21:15:00</t>
+          <t>2024-03-21 21:15:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1767</v>
+        <v>1548</v>
       </c>
       <c r="H10" t="n">
-        <v>1775</v>
+        <v>1553</v>
       </c>
       <c r="I10" t="n">
-        <v>1754</v>
+        <v>1544</v>
       </c>
       <c r="J10" t="n">
-        <v>1762</v>
+        <v>1546</v>
       </c>
       <c r="K10" t="n">
-        <v>148685</v>
+        <v>87782</v>
       </c>
       <c r="L10" t="n">
-        <v>666399</v>
+        <v>663341</v>
       </c>
       <c r="M10" t="n">
-        <v>1779.832342630697</v>
+        <v>1552.483462886755</v>
       </c>
       <c r="N10" t="n">
-        <v>1795.393786203801</v>
+        <v>1551.277167723225</v>
       </c>
       <c r="O10" t="n">
-        <v>15.56144357310359</v>
+        <v>1.206295163530058</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V10" t="inlineStr"/>
     </row>
@@ -1193,19 +1193,19 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>2194831</v>
+        <v>51808877</v>
       </c>
       <c r="C11" t="n">
-        <v>1704893400</v>
+        <v>1711027800</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FG24051704893400</t>
+          <t>FG24051711027800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-01-10 21:30:00</t>
+          <t>2024-03-21 21:30:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1214,31 +1214,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1762</v>
+        <v>1546</v>
       </c>
       <c r="H11" t="n">
-        <v>1764</v>
+        <v>1552</v>
       </c>
       <c r="I11" t="n">
-        <v>1745</v>
+        <v>1542</v>
       </c>
       <c r="J11" t="n">
-        <v>1750</v>
+        <v>1551</v>
       </c>
       <c r="K11" t="n">
-        <v>87947</v>
+        <v>44736</v>
       </c>
       <c r="L11" t="n">
-        <v>665552</v>
+        <v>676366</v>
       </c>
       <c r="M11" t="n">
-        <v>1769.888228420465</v>
+        <v>1551.988975257837</v>
       </c>
       <c r="N11" t="n">
-        <v>1787.140370530382</v>
+        <v>1551.22677359173</v>
       </c>
       <c r="O11" t="n">
-        <v>17.25214210991749</v>
+        <v>0.7622016661073303</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V11" t="inlineStr"/>
     </row>
@@ -1265,19 +1265,19 @@
         <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>2223447</v>
+        <v>51838515</v>
       </c>
       <c r="C12" t="n">
-        <v>1704894300</v>
+        <v>1711028700</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FG24051704894300</t>
+          <t>FG24051711028700</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-01-10 21:45:00</t>
+          <t>2024-03-21 21:45:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1286,31 +1286,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1749</v>
+        <v>1551</v>
       </c>
       <c r="H12" t="n">
-        <v>1773</v>
+        <v>1556</v>
       </c>
       <c r="I12" t="n">
-        <v>1748</v>
+        <v>1549</v>
       </c>
       <c r="J12" t="n">
-        <v>1769</v>
+        <v>1555</v>
       </c>
       <c r="K12" t="n">
-        <v>101220</v>
+        <v>32113</v>
       </c>
       <c r="L12" t="n">
-        <v>672277</v>
+        <v>678346</v>
       </c>
       <c r="M12" t="n">
-        <v>1769.59215228031</v>
+        <v>1552.992650171891</v>
       </c>
       <c r="N12" t="n">
-        <v>1783.84212134304</v>
+        <v>1551.91281475687</v>
       </c>
       <c r="O12" t="n">
-        <v>14.24996906272963</v>
+        <v>1.079835415021762</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V12" t="inlineStr"/>
     </row>
@@ -1337,19 +1337,19 @@
         <v>88</v>
       </c>
       <c r="B13" t="n">
-        <v>2252063</v>
+        <v>51870197</v>
       </c>
       <c r="C13" t="n">
-        <v>1704895200</v>
+        <v>1711029600</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FG24051704895200</t>
+          <t>FG24051711029600</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-01-10 22:00:00</t>
+          <t>2024-03-21 22:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,31 +1358,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1769</v>
+        <v>1555</v>
       </c>
       <c r="H13" t="n">
-        <v>1779</v>
+        <v>1558</v>
       </c>
       <c r="I13" t="n">
-        <v>1768</v>
+        <v>1552</v>
       </c>
       <c r="J13" t="n">
-        <v>1774</v>
+        <v>1557</v>
       </c>
       <c r="K13" t="n">
-        <v>83004</v>
+        <v>27644</v>
       </c>
       <c r="L13" t="n">
-        <v>662320</v>
+        <v>675982</v>
       </c>
       <c r="M13" t="n">
-        <v>1771.06143485354</v>
+        <v>1554.328433447928</v>
       </c>
       <c r="N13" t="n">
-        <v>1782.052644735214</v>
+        <v>1552.837757528348</v>
       </c>
       <c r="O13" t="n">
-        <v>10.99120988167419</v>
+        <v>1.490675919579871</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V13" t="inlineStr"/>
     </row>
@@ -1409,19 +1409,19 @@
         <v>87</v>
       </c>
       <c r="B14" t="n">
-        <v>2282723</v>
+        <v>51895747</v>
       </c>
       <c r="C14" t="n">
-        <v>1704896100</v>
+        <v>1711030500</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FG24051704896100</t>
+          <t>FG24051711030500</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-10 22:15:00</t>
+          <t>2024-03-21 22:15:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1774</v>
+        <v>1556</v>
       </c>
       <c r="H14" t="n">
-        <v>1776</v>
+        <v>1559</v>
       </c>
       <c r="I14" t="n">
-        <v>1766</v>
+        <v>1551</v>
       </c>
       <c r="J14" t="n">
-        <v>1772</v>
+        <v>1555</v>
       </c>
       <c r="K14" t="n">
-        <v>44064</v>
+        <v>26320</v>
       </c>
       <c r="L14" t="n">
-        <v>662201</v>
+        <v>674282</v>
       </c>
       <c r="M14" t="n">
-        <v>1771.37428990236</v>
+        <v>1554.552288965285</v>
       </c>
       <c r="N14" t="n">
-        <v>1780.224891146994</v>
+        <v>1553.230892523194</v>
       </c>
       <c r="O14" t="n">
-        <v>8.850601244633481</v>
+        <v>1.321396442091554</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V14" t="inlineStr"/>
     </row>
@@ -1481,19 +1481,19 @@
         <v>86</v>
       </c>
       <c r="B15" t="n">
-        <v>2311339</v>
+        <v>51927429</v>
       </c>
       <c r="C15" t="n">
-        <v>1704897000</v>
+        <v>1711031400</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FG24051704897000</t>
+          <t>FG24051711031400</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-01-10 22:30:00</t>
+          <t>2024-03-21 22:30:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1502,31 +1502,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1772</v>
+        <v>1555</v>
       </c>
       <c r="H15" t="n">
-        <v>1775</v>
+        <v>1556</v>
       </c>
       <c r="I15" t="n">
-        <v>1769</v>
+        <v>1551</v>
       </c>
       <c r="J15" t="n">
-        <v>1775</v>
+        <v>1554</v>
       </c>
       <c r="K15" t="n">
-        <v>24190</v>
+        <v>12260</v>
       </c>
       <c r="L15" t="n">
-        <v>660060</v>
+        <v>670659</v>
       </c>
       <c r="M15" t="n">
-        <v>1772.582859934907</v>
+        <v>1554.368192643524</v>
       </c>
       <c r="N15" t="n">
-        <v>1779.274910938449</v>
+        <v>1553.370730246249</v>
       </c>
       <c r="O15" t="n">
-        <v>6.692051003542247</v>
+        <v>0.9974623972743757</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="inlineStr"/>
     </row>
@@ -1553,19 +1553,19 @@
         <v>85</v>
       </c>
       <c r="B16" t="n">
-        <v>2333823</v>
+        <v>51958089</v>
       </c>
       <c r="C16" t="n">
-        <v>1704897900</v>
+        <v>1711032300</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FG24051704897900</t>
+          <t>FG24051711032300</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-01-10 22:45:00</t>
+          <t>2024-03-21 22:45:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1774</v>
+        <v>1554</v>
       </c>
       <c r="H16" t="n">
-        <v>1777</v>
+        <v>1566</v>
       </c>
       <c r="I16" t="n">
-        <v>1770</v>
+        <v>1553</v>
       </c>
       <c r="J16" t="n">
-        <v>1775</v>
+        <v>1565</v>
       </c>
       <c r="K16" t="n">
-        <v>21798</v>
+        <v>46630</v>
       </c>
       <c r="L16" t="n">
-        <v>657152</v>
+        <v>669273</v>
       </c>
       <c r="M16" t="n">
-        <v>1773.388573289938</v>
+        <v>1557.912128429016</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.497654404186</v>
+        <v>1555.485142928749</v>
       </c>
       <c r="O16" t="n">
-        <v>5.109081114247601</v>
+        <v>2.42698550026671</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="inlineStr"/>
     </row>
@@ -1625,19 +1625,19 @@
         <v>84</v>
       </c>
       <c r="B17" t="n">
-        <v>2360395</v>
+        <v>51987727</v>
       </c>
       <c r="C17" t="n">
-        <v>1704898800</v>
+        <v>1711033200</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FG24051704898800</t>
+          <t>FG24051711033200</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-01-10 23:00:00</t>
+          <t>2024-03-21 23:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1775</v>
+        <v>1565</v>
       </c>
       <c r="H17" t="n">
-        <v>1779</v>
+        <v>1572</v>
       </c>
       <c r="I17" t="n">
-        <v>1771</v>
+        <v>1560</v>
       </c>
       <c r="J17" t="n">
-        <v>1777</v>
+        <v>1563</v>
       </c>
       <c r="K17" t="n">
-        <v>29318</v>
+        <v>105243</v>
       </c>
       <c r="L17" t="n">
-        <v>655888</v>
+        <v>665599</v>
       </c>
       <c r="M17" t="n">
-        <v>1774.592382193292</v>
+        <v>1559.608085619344</v>
       </c>
       <c r="N17" t="n">
-        <v>1778.225353603425</v>
+        <v>1556.851480578067</v>
       </c>
       <c r="O17" t="n">
-        <v>3.632971410132541</v>
+        <v>2.756605041276771</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="inlineStr"/>
     </row>
@@ -1697,19 +1697,19 @@
         <v>83</v>
       </c>
       <c r="B18" t="n">
-        <v>2440111</v>
+        <v>52023497</v>
       </c>
       <c r="C18" t="n">
-        <v>1704935700</v>
+        <v>1711070100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FG24051704935700</t>
+          <t>FG24051711070100</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-01-11 09:15:00</t>
+          <t>2024-03-22 09:15:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1718,31 +1718,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1778</v>
+        <v>1563</v>
       </c>
       <c r="H18" t="n">
-        <v>1784</v>
+        <v>1566</v>
       </c>
       <c r="I18" t="n">
-        <v>1773</v>
+        <v>1556</v>
       </c>
       <c r="J18" t="n">
-        <v>1776</v>
+        <v>1557</v>
       </c>
       <c r="K18" t="n">
-        <v>49751</v>
+        <v>53152</v>
       </c>
       <c r="L18" t="n">
-        <v>645812</v>
+        <v>655656</v>
       </c>
       <c r="M18" t="n">
-        <v>1775.061588128862</v>
+        <v>1558.73872374623</v>
       </c>
       <c r="N18" t="n">
-        <v>1777.820743857347</v>
+        <v>1556.878484109328</v>
       </c>
       <c r="O18" t="n">
-        <v>2.759155728485666</v>
+        <v>1.860239636901724</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" t="inlineStr"/>
     </row>
@@ -1769,19 +1769,19 @@
         <v>82</v>
       </c>
       <c r="B19" t="n">
-        <v>2470771</v>
+        <v>52051091</v>
       </c>
       <c r="C19" t="n">
-        <v>1704936600</v>
+        <v>1711071000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FG24051704936600</t>
+          <t>FG24051711071000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-01-11 09:30:00</t>
+          <t>2024-03-22 09:30:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1777</v>
+        <v>1557</v>
       </c>
       <c r="H19" t="n">
-        <v>1780</v>
+        <v>1564</v>
       </c>
       <c r="I19" t="n">
-        <v>1773</v>
+        <v>1556</v>
       </c>
       <c r="J19" t="n">
-        <v>1776</v>
+        <v>1561</v>
       </c>
       <c r="K19" t="n">
-        <v>18686</v>
+        <v>28952</v>
       </c>
       <c r="L19" t="n">
-        <v>646194</v>
+        <v>661529</v>
       </c>
       <c r="M19" t="n">
-        <v>1775.374392085908</v>
+        <v>1559.492482497486</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.489699519648</v>
+        <v>1557.627850634904</v>
       </c>
       <c r="O19" t="n">
-        <v>2.115307433739872</v>
+        <v>1.864631862581973</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="inlineStr"/>
     </row>
@@ -1841,19 +1841,19 @@
         <v>81</v>
       </c>
       <c r="B20" t="n">
-        <v>2499387</v>
+        <v>52081751</v>
       </c>
       <c r="C20" t="n">
-        <v>1704937500</v>
+        <v>1711071900</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FG24051704937500</t>
+          <t>FG24051711071900</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-01-11 09:45:00</t>
+          <t>2024-03-22 09:45:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1862,31 +1862,31 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1776</v>
+        <v>1561</v>
       </c>
       <c r="H20" t="n">
-        <v>1790</v>
+        <v>1565</v>
       </c>
       <c r="I20" t="n">
-        <v>1776</v>
+        <v>1558</v>
       </c>
       <c r="J20" t="n">
-        <v>1782</v>
+        <v>1562</v>
       </c>
       <c r="K20" t="n">
-        <v>47503</v>
+        <v>21158</v>
       </c>
       <c r="L20" t="n">
-        <v>645953</v>
+        <v>663243</v>
       </c>
       <c r="M20" t="n">
-        <v>1777.582928057272</v>
+        <v>1560.328321664991</v>
       </c>
       <c r="N20" t="n">
-        <v>1778.309754152439</v>
+        <v>1558.422786883104</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7268260951668708</v>
+        <v>1.905534781887582</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="inlineStr"/>
     </row>
@@ -1913,19 +1913,19 @@
         <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>2530047</v>
+        <v>52112411</v>
       </c>
       <c r="C21" t="n">
-        <v>1704938400</v>
+        <v>1711072800</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FG24051704938400</t>
+          <t>FG24051711072800</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-01-11 10:00:00</t>
+          <t>2024-03-22 10:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1781</v>
+        <v>1563</v>
       </c>
       <c r="H21" t="n">
-        <v>1783</v>
+        <v>1564</v>
       </c>
       <c r="I21" t="n">
-        <v>1772</v>
+        <v>1558</v>
       </c>
       <c r="J21" t="n">
-        <v>1774</v>
+        <v>1559</v>
       </c>
       <c r="K21" t="n">
-        <v>26724</v>
+        <v>22654</v>
       </c>
       <c r="L21" t="n">
-        <v>642377</v>
+        <v>663493</v>
       </c>
       <c r="M21" t="n">
-        <v>1776.388618704848</v>
+        <v>1559.885547776661</v>
       </c>
       <c r="N21" t="n">
-        <v>1777.526162488359</v>
+        <v>1558.527734722539</v>
       </c>
       <c r="O21" t="n">
-        <v>1.137543783510864</v>
+        <v>1.357813054121834</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="inlineStr"/>
     </row>
@@ -1985,19 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B22" t="n">
-        <v>2560707</v>
+        <v>52145115</v>
       </c>
       <c r="C22" t="n">
-        <v>1704939300</v>
+        <v>1711073700</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FG24051704939300</t>
+          <t>FG24051711073700</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-01-11 10:15:00</t>
+          <t>2024-03-22 10:15:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2006,40 +2006,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1774</v>
+        <v>1559</v>
       </c>
       <c r="H22" t="n">
-        <v>1776</v>
+        <v>1562</v>
       </c>
       <c r="I22" t="n">
-        <v>1766</v>
+        <v>1551</v>
       </c>
       <c r="J22" t="n">
-        <v>1775</v>
+        <v>1552</v>
       </c>
       <c r="K22" t="n">
-        <v>45722</v>
+        <v>30662</v>
       </c>
       <c r="L22" t="n">
-        <v>642558</v>
+        <v>663775</v>
       </c>
       <c r="M22" t="n">
-        <v>1775.925745803232</v>
+        <v>1557.257031851108</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.066860217748</v>
+        <v>1557.340873863896</v>
       </c>
       <c r="O22" t="n">
-        <v>1.141114414516096</v>
+        <v>0.08384201278818182</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1587</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V22" t="inlineStr"/>
     </row>
@@ -2057,19 +2057,19 @@
         <v>78</v>
       </c>
       <c r="B23" t="n">
-        <v>2619983</v>
+        <v>52203369</v>
       </c>
       <c r="C23" t="n">
-        <v>1704941100</v>
+        <v>1711075500</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FG24051704941100</t>
+          <t>FG24051711075500</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-01-11 10:45:00</t>
+          <t>2024-03-22 10:45:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2078,34 +2078,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1775</v>
+        <v>1552</v>
       </c>
       <c r="H23" t="n">
-        <v>1776</v>
+        <v>1558</v>
       </c>
       <c r="I23" t="n">
-        <v>1768</v>
+        <v>1551</v>
       </c>
       <c r="J23" t="n">
-        <v>1769</v>
+        <v>1558</v>
       </c>
       <c r="K23" t="n">
-        <v>17519</v>
+        <v>16484</v>
       </c>
       <c r="L23" t="n">
-        <v>643902</v>
+        <v>658887</v>
       </c>
       <c r="M23" t="n">
-        <v>1773.617163868822</v>
+        <v>1557.504687900738</v>
       </c>
       <c r="N23" t="n">
-        <v>1775.600158359975</v>
+        <v>1557.460714979551</v>
       </c>
       <c r="O23" t="n">
-        <v>1.982994491153931</v>
+        <v>0.04397292118756013</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="inlineStr"/>
     </row>
@@ -2129,19 +2129,19 @@
         <v>77</v>
       </c>
       <c r="B24" t="n">
-        <v>2650643</v>
+        <v>52233007</v>
       </c>
       <c r="C24" t="n">
-        <v>1704942000</v>
+        <v>1711076400</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FG24051704942000</t>
+          <t>FG24051711076400</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-11 11:00:00</t>
+          <t>2024-03-22 11:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1770</v>
+        <v>1557</v>
       </c>
       <c r="H24" t="n">
-        <v>1777</v>
+        <v>1564</v>
       </c>
       <c r="I24" t="n">
-        <v>1769</v>
+        <v>1557</v>
       </c>
       <c r="J24" t="n">
-        <v>1774</v>
+        <v>1559</v>
       </c>
       <c r="K24" t="n">
-        <v>17420</v>
+        <v>29284</v>
       </c>
       <c r="L24" t="n">
-        <v>644599</v>
+        <v>660233</v>
       </c>
       <c r="M24" t="n">
-        <v>1773.744775912548</v>
+        <v>1558.003125267159</v>
       </c>
       <c r="N24" t="n">
-        <v>1775.309220476343</v>
+        <v>1557.740584983269</v>
       </c>
       <c r="O24" t="n">
-        <v>1.564444563795632</v>
+        <v>0.2625402838905302</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="inlineStr"/>
     </row>
@@ -2201,19 +2201,19 @@
         <v>76</v>
       </c>
       <c r="B25" t="n">
-        <v>2679259</v>
+        <v>52263667</v>
       </c>
       <c r="C25" t="n">
-        <v>1704942900</v>
+        <v>1711077300</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FG24051704942900</t>
+          <t>FG24051711077300</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-11 11:15:00</t>
+          <t>2024-03-22 11:15:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2222,34 +2222,34 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1775</v>
+        <v>1559</v>
       </c>
       <c r="H25" t="n">
-        <v>1780</v>
+        <v>1563</v>
       </c>
       <c r="I25" t="n">
-        <v>1770</v>
+        <v>1556</v>
       </c>
       <c r="J25" t="n">
-        <v>1779</v>
+        <v>1557</v>
       </c>
       <c r="K25" t="n">
-        <v>18991</v>
+        <v>19133</v>
       </c>
       <c r="L25" t="n">
-        <v>641826</v>
+        <v>662115</v>
       </c>
       <c r="M25" t="n">
-        <v>1775.496517275032</v>
+        <v>1557.668750178106</v>
       </c>
       <c r="N25" t="n">
-        <v>1775.980271298826</v>
+        <v>1557.605933168129</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4837540237945177</v>
+        <v>0.06281700997737971</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="inlineStr"/>
     </row>
@@ -2273,19 +2273,19 @@
         <v>75</v>
       </c>
       <c r="B26" t="n">
-        <v>2709919</v>
+        <v>52295349</v>
       </c>
       <c r="C26" t="n">
-        <v>1704943800</v>
+        <v>1711078200</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FG24051704943800</t>
+          <t>FG24051711078200</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-01-11 11:30:00</t>
+          <t>2024-03-22 11:30:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2294,40 +2294,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1779</v>
+        <v>1557</v>
       </c>
       <c r="H26" t="n">
-        <v>1783</v>
+        <v>1559</v>
       </c>
       <c r="I26" t="n">
-        <v>1777</v>
+        <v>1551</v>
       </c>
       <c r="J26" t="n">
-        <v>1781</v>
+        <v>1556</v>
       </c>
       <c r="K26" t="n">
-        <v>27466</v>
+        <v>30747</v>
       </c>
       <c r="L26" t="n">
-        <v>638337</v>
+        <v>663726</v>
       </c>
       <c r="M26" t="n">
-        <v>1777.331011516688</v>
+        <v>1557.112500118738</v>
       </c>
       <c r="N26" t="n">
-        <v>1776.892949244494</v>
+        <v>1557.313945319378</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4380622721939744</v>
+        <v>0.2014452006403644</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1746</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1781</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V26" t="inlineStr"/>
     </row>
@@ -2345,19 +2345,19 @@
         <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>2783503</v>
+        <v>52326009</v>
       </c>
       <c r="C27" t="n">
-        <v>1704951900</v>
+        <v>1711086300</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FG24051704951900</t>
+          <t>FG24051711086300</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-01-11 13:45:00</t>
+          <t>2024-03-22 13:45:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2366,34 +2366,34 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1785</v>
+        <v>1557</v>
       </c>
       <c r="H27" t="n">
-        <v>1795</v>
+        <v>1557</v>
       </c>
       <c r="I27" t="n">
-        <v>1782</v>
+        <v>1543</v>
       </c>
       <c r="J27" t="n">
-        <v>1785</v>
+        <v>1549</v>
       </c>
       <c r="K27" t="n">
-        <v>56491</v>
+        <v>65116</v>
       </c>
       <c r="L27" t="n">
-        <v>634290</v>
+        <v>662379</v>
       </c>
       <c r="M27" t="n">
-        <v>1779.887341011126</v>
+        <v>1554.408333412492</v>
       </c>
       <c r="N27" t="n">
-        <v>1778.366958472768</v>
+        <v>1555.802318897673</v>
       </c>
       <c r="O27" t="n">
-        <v>1.520382538357808</v>
+        <v>1.39398548518102</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V27" t="inlineStr"/>
     </row>
@@ -2417,19 +2417,19 @@
         <v>73</v>
       </c>
       <c r="B28" t="n">
-        <v>2808031</v>
+        <v>52356669</v>
       </c>
       <c r="C28" t="n">
-        <v>1704952800</v>
+        <v>1711087200</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FG24051704952800</t>
+          <t>FG24051711087200</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-01-11 14:00:00</t>
+          <t>2024-03-22 14:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1785</v>
+        <v>1550</v>
       </c>
       <c r="H28" t="n">
-        <v>1787</v>
+        <v>1556</v>
       </c>
       <c r="I28" t="n">
-        <v>1780</v>
+        <v>1549</v>
       </c>
       <c r="J28" t="n">
-        <v>1783</v>
+        <v>1551</v>
       </c>
       <c r="K28" t="n">
-        <v>21046</v>
+        <v>22560</v>
       </c>
       <c r="L28" t="n">
-        <v>631063</v>
+        <v>664292</v>
       </c>
       <c r="M28" t="n">
-        <v>1780.924894007417</v>
+        <v>1553.272222274995</v>
       </c>
       <c r="N28" t="n">
-        <v>1779.209329659537</v>
+        <v>1554.929170007187</v>
       </c>
       <c r="O28" t="n">
-        <v>1.715564347879763</v>
+        <v>1.656947732192066</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V28" t="inlineStr"/>
     </row>
@@ -2489,19 +2489,19 @@
         <v>72</v>
       </c>
       <c r="B29" t="n">
-        <v>2834603</v>
+        <v>52385285</v>
       </c>
       <c r="C29" t="n">
-        <v>1704953700</v>
+        <v>1711088100</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FG24051704953700</t>
+          <t>FG24051711088100</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-01-11 14:15:00</t>
+          <t>2024-03-22 14:15:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2510,34 +2510,34 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1783</v>
+        <v>1551</v>
       </c>
       <c r="H29" t="n">
-        <v>1784</v>
+        <v>1554</v>
       </c>
       <c r="I29" t="n">
-        <v>1773</v>
+        <v>1548</v>
       </c>
       <c r="J29" t="n">
-        <v>1781</v>
+        <v>1553</v>
       </c>
       <c r="K29" t="n">
-        <v>36859</v>
+        <v>24352</v>
       </c>
       <c r="L29" t="n">
-        <v>632303</v>
+        <v>663536</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.949929338278</v>
+        <v>1553.181481516664</v>
       </c>
       <c r="N29" t="n">
-        <v>1779.534906085076</v>
+        <v>1554.578411824062</v>
       </c>
       <c r="O29" t="n">
-        <v>1.415023253202435</v>
+        <v>1.396930307398179</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V29" t="inlineStr"/>
     </row>
@@ -2561,19 +2561,19 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>2865263</v>
+        <v>52416967</v>
       </c>
       <c r="C30" t="n">
-        <v>1704954600</v>
+        <v>1711089000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FG24051704954600</t>
+          <t>FG24051711089000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-01-11 14:30:00</t>
+          <t>2024-03-22 14:30:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2582,34 +2582,34 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1782</v>
+        <v>1554</v>
       </c>
       <c r="H30" t="n">
-        <v>1790</v>
+        <v>1556</v>
       </c>
       <c r="I30" t="n">
-        <v>1777</v>
+        <v>1536</v>
       </c>
       <c r="J30" t="n">
-        <v>1788</v>
+        <v>1538</v>
       </c>
       <c r="K30" t="n">
-        <v>38690</v>
+        <v>72344</v>
       </c>
       <c r="L30" t="n">
-        <v>632689</v>
+        <v>663316</v>
       </c>
       <c r="M30" t="n">
-        <v>1783.299952892186</v>
+        <v>1548.120987677776</v>
       </c>
       <c r="N30" t="n">
-        <v>1781.074014069608</v>
+        <v>1551.564155128778</v>
       </c>
       <c r="O30" t="n">
-        <v>2.2259388225782</v>
+        <v>3.443167451001955</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V30" t="inlineStr"/>
     </row>
@@ -2633,19 +2633,19 @@
         <v>70</v>
       </c>
       <c r="B31" t="n">
-        <v>2897967</v>
+        <v>52444561</v>
       </c>
       <c r="C31" t="n">
-        <v>1704955500</v>
+        <v>1711089900</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FG24051704955500</t>
+          <t>FG24051711089900</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-01-11 14:45:00</t>
+          <t>2024-03-22 14:45:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2654,34 +2654,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1787</v>
+        <v>1538</v>
       </c>
       <c r="H31" t="n">
-        <v>1793</v>
+        <v>1541</v>
       </c>
       <c r="I31" t="n">
-        <v>1784</v>
+        <v>1527</v>
       </c>
       <c r="J31" t="n">
-        <v>1792</v>
+        <v>1532</v>
       </c>
       <c r="K31" t="n">
-        <v>36697</v>
+        <v>128132</v>
       </c>
       <c r="L31" t="n">
-        <v>635363</v>
+        <v>667807</v>
       </c>
       <c r="M31" t="n">
-        <v>1786.199968594791</v>
+        <v>1542.747325118517</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.060556966042</v>
+        <v>1548.007036014454</v>
       </c>
       <c r="O31" t="n">
-        <v>3.139411628748121</v>
+        <v>5.259710895936905</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V31" t="inlineStr"/>
     </row>
@@ -2705,19 +2705,19 @@
         <v>69</v>
       </c>
       <c r="B32" t="n">
-        <v>2926583</v>
+        <v>52474199</v>
       </c>
       <c r="C32" t="n">
-        <v>1704956400</v>
+        <v>1711090800</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FG24051704956400</t>
+          <t>FG24051711090800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-01-11 15:00:00</t>
+          <t>2024-03-22 15:00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2726,34 +2726,34 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1793</v>
+        <v>1532</v>
       </c>
       <c r="H32" t="n">
-        <v>1795</v>
+        <v>1534</v>
       </c>
       <c r="I32" t="n">
-        <v>1786</v>
+        <v>1523</v>
       </c>
       <c r="J32" t="n">
-        <v>1787</v>
+        <v>1531</v>
       </c>
       <c r="K32" t="n">
-        <v>46405</v>
+        <v>100041</v>
       </c>
       <c r="L32" t="n">
-        <v>628486</v>
+        <v>690388</v>
       </c>
       <c r="M32" t="n">
-        <v>1786.46664572986</v>
+        <v>1538.831550079012</v>
       </c>
       <c r="N32" t="n">
-        <v>1783.776819335853</v>
+        <v>1544.91484764819</v>
       </c>
       <c r="O32" t="n">
-        <v>2.689826394007468</v>
+        <v>6.08329756917783</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V32" t="inlineStr"/>
     </row>
@@ -2777,19 +2777,19 @@
         <v>68</v>
       </c>
       <c r="B33" t="n">
-        <v>3684907</v>
+        <v>52532459</v>
       </c>
       <c r="C33" t="n">
-        <v>1704978900</v>
+        <v>1711113300</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FG24051704978900</t>
+          <t>FG24051711113300</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-11 21:15:00</t>
+          <t>2024-03-22 21:15:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2798,34 +2798,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1790</v>
+        <v>1529</v>
       </c>
       <c r="H33" t="n">
-        <v>1790</v>
+        <v>1529</v>
       </c>
       <c r="I33" t="n">
-        <v>1774</v>
+        <v>1511</v>
       </c>
       <c r="J33" t="n">
-        <v>1779</v>
+        <v>1513</v>
       </c>
       <c r="K33" t="n">
-        <v>85661</v>
+        <v>151695</v>
       </c>
       <c r="L33" t="n">
-        <v>615550</v>
+        <v>728074</v>
       </c>
       <c r="M33" t="n">
-        <v>1783.977763819907</v>
+        <v>1530.221033386008</v>
       </c>
       <c r="N33" t="n">
-        <v>1782.908306729334</v>
+        <v>1539.112148075792</v>
       </c>
       <c r="O33" t="n">
-        <v>1.069457090572996</v>
+        <v>8.891114689783535</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V33" t="inlineStr"/>
     </row>
@@ -2849,19 +2849,19 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>3715567</v>
+        <v>52532460</v>
       </c>
       <c r="C34" t="n">
-        <v>1704979800</v>
+        <v>1711114200</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FG24051704979800</t>
+          <t>FG24051711114200</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-01-11 21:30:00</t>
+          <t>2024-03-22 21:30:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2870,34 +2870,34 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1779</v>
+        <v>1513</v>
       </c>
       <c r="H34" t="n">
-        <v>1780</v>
+        <v>1524</v>
       </c>
       <c r="I34" t="n">
-        <v>1769</v>
+        <v>1513</v>
       </c>
       <c r="J34" t="n">
-        <v>1776</v>
+        <v>1522</v>
       </c>
       <c r="K34" t="n">
-        <v>55152</v>
+        <v>55783</v>
       </c>
       <c r="L34" t="n">
-        <v>624165</v>
+        <v>729627</v>
       </c>
       <c r="M34" t="n">
-        <v>1781.318509213271</v>
+        <v>1527.480688924005</v>
       </c>
       <c r="N34" t="n">
-        <v>1781.652250960364</v>
+        <v>1536.000848425648</v>
       </c>
       <c r="O34" t="n">
-        <v>0.3337417470927448</v>
+        <v>8.520159501642183</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>3746227</v>
+        <v>52532461</v>
       </c>
       <c r="C35" t="n">
-        <v>1704980700</v>
+        <v>1711115100</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FG24051704980700</t>
+          <t>FG24051711115100</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-01-11 21:45:00</t>
+          <t>2024-03-22 21:45:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2942,34 +2942,34 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1776</v>
+        <v>1522</v>
       </c>
       <c r="H35" t="n">
-        <v>1779</v>
+        <v>1526</v>
       </c>
       <c r="I35" t="n">
-        <v>1771</v>
+        <v>1519</v>
       </c>
       <c r="J35" t="n">
-        <v>1773</v>
+        <v>1522</v>
       </c>
       <c r="K35" t="n">
-        <v>27897</v>
+        <v>34261</v>
       </c>
       <c r="L35" t="n">
-        <v>628922</v>
+        <v>727822</v>
       </c>
       <c r="M35" t="n">
-        <v>1778.545672808848</v>
+        <v>1525.653792616004</v>
       </c>
       <c r="N35" t="n">
-        <v>1780.079114422116</v>
+        <v>1533.455239620984</v>
       </c>
       <c r="O35" t="n">
-        <v>1.533441613268451</v>
+        <v>7.801447004980673</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -2993,19 +2993,19 @@
         <v>65</v>
       </c>
       <c r="B36" t="n">
-        <v>3776887</v>
+        <v>52532462</v>
       </c>
       <c r="C36" t="n">
-        <v>1704981600</v>
+        <v>1711116000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FG24051704981600</t>
+          <t>FG24051711116000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-01-11 22:00:00</t>
+          <t>2024-03-22 22:00:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3014,34 +3014,34 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1774</v>
+        <v>1523</v>
       </c>
       <c r="H36" t="n">
-        <v>1774</v>
+        <v>1526</v>
       </c>
       <c r="I36" t="n">
-        <v>1760</v>
+        <v>1519</v>
       </c>
       <c r="J36" t="n">
-        <v>1764</v>
+        <v>1521</v>
       </c>
       <c r="K36" t="n">
-        <v>70258</v>
+        <v>23172</v>
       </c>
       <c r="L36" t="n">
-        <v>629246</v>
+        <v>727750</v>
       </c>
       <c r="M36" t="n">
-        <v>1773.697115205899</v>
+        <v>1524.102528410669</v>
       </c>
       <c r="N36" t="n">
-        <v>1777.15563907264</v>
+        <v>1531.190650598987</v>
       </c>
       <c r="O36" t="n">
-        <v>3.458523866741871</v>
+        <v>7.088122188318039</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3065,19 +3065,19 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>3805503</v>
+        <v>52532463</v>
       </c>
       <c r="C37" t="n">
-        <v>1704982500</v>
+        <v>1711116900</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FG24051704982500</t>
+          <t>FG24051711116900</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-01-11 22:15:00</t>
+          <t>2024-03-22 22:15:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3086,34 +3086,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1763</v>
+        <v>1521</v>
       </c>
       <c r="H37" t="n">
-        <v>1765</v>
+        <v>1522</v>
       </c>
       <c r="I37" t="n">
-        <v>1756</v>
+        <v>1514</v>
       </c>
       <c r="J37" t="n">
-        <v>1765</v>
+        <v>1517</v>
       </c>
       <c r="K37" t="n">
-        <v>60058</v>
+        <v>38027</v>
       </c>
       <c r="L37" t="n">
-        <v>622467</v>
+        <v>727043</v>
       </c>
       <c r="M37" t="n">
-        <v>1770.798076803932</v>
+        <v>1521.735018940446</v>
       </c>
       <c r="N37" t="n">
-        <v>1774.945522877615</v>
+        <v>1528.610532308262</v>
       </c>
       <c r="O37" t="n">
-        <v>4.147446073682431</v>
+        <v>6.875513367815984</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3137,19 +3137,19 @@
         <v>63</v>
       </c>
       <c r="B38" t="n">
-        <v>3836163</v>
+        <v>52538595</v>
       </c>
       <c r="C38" t="n">
-        <v>1704983400</v>
+        <v>1711117800</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FG24051704983400</t>
+          <t>FG24051711117800</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-01-11 22:30:00</t>
+          <t>2024-03-22 22:30:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3158,34 +3158,34 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1765</v>
+        <v>1517</v>
       </c>
       <c r="H38" t="n">
-        <v>1765</v>
+        <v>1518</v>
       </c>
       <c r="I38" t="n">
-        <v>1753</v>
+        <v>1512</v>
       </c>
       <c r="J38" t="n">
-        <v>1755</v>
+        <v>1515</v>
       </c>
       <c r="K38" t="n">
-        <v>38673</v>
+        <v>31917</v>
       </c>
       <c r="L38" t="n">
-        <v>620478</v>
+        <v>730343</v>
       </c>
       <c r="M38" t="n">
-        <v>1765.532051202622</v>
+        <v>1519.490012626964</v>
       </c>
       <c r="N38" t="n">
-        <v>1771.319064172594</v>
+        <v>1526.135890070396</v>
       </c>
       <c r="O38" t="n">
-        <v>5.787012969972011</v>
+        <v>6.645877443432028</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3209,19 +3209,19 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>3842294</v>
+        <v>52541661</v>
       </c>
       <c r="C39" t="n">
-        <v>1704984300</v>
+        <v>1711118700</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FG24051704984300</t>
+          <t>FG24051711118700</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-01-11 22:45:00</t>
+          <t>2024-03-22 22:45:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3230,34 +3230,34 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1754</v>
+        <v>1515</v>
       </c>
       <c r="H39" t="n">
-        <v>1758</v>
+        <v>1517</v>
       </c>
       <c r="I39" t="n">
-        <v>1727</v>
+        <v>1508</v>
       </c>
       <c r="J39" t="n">
-        <v>1734</v>
+        <v>1514</v>
       </c>
       <c r="K39" t="n">
-        <v>128193</v>
+        <v>52195</v>
       </c>
       <c r="L39" t="n">
-        <v>628898</v>
+        <v>736467</v>
       </c>
       <c r="M39" t="n">
-        <v>1755.021367468415</v>
+        <v>1517.660008417976</v>
       </c>
       <c r="N39" t="n">
-        <v>1764.533779777576</v>
+        <v>1523.929364603051</v>
       </c>
       <c r="O39" t="n">
-        <v>9.512412309161846</v>
+        <v>6.269356185075139</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3266,36 +3266,34 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-2848</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>-1</v>
       </c>
-      <c r="V39" t="n">
-        <v>48</v>
-      </c>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B40" t="n">
-        <v>3842295</v>
+        <v>52548817</v>
       </c>
       <c r="C40" t="n">
-        <v>1704985200</v>
+        <v>1711119600</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FG24051704985200</t>
+          <t>FG24051711119600</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-01-11 23:00:00</t>
+          <t>2024-03-22 23:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3304,34 +3302,34 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1734</v>
+        <v>1514</v>
       </c>
       <c r="H40" t="n">
-        <v>1737</v>
+        <v>1517</v>
       </c>
       <c r="I40" t="n">
-        <v>1717</v>
+        <v>1507</v>
       </c>
       <c r="J40" t="n">
-        <v>1737</v>
+        <v>1511</v>
       </c>
       <c r="K40" t="n">
-        <v>134260</v>
+        <v>55218</v>
       </c>
       <c r="L40" t="n">
-        <v>631105</v>
+        <v>738695</v>
       </c>
       <c r="M40" t="n">
-        <v>1749.014244978943</v>
+        <v>1515.440005611984</v>
       </c>
       <c r="N40" t="n">
-        <v>1759.527637999835</v>
+        <v>1521.57857103886</v>
       </c>
       <c r="O40" t="n">
-        <v>10.51339302089195</v>
+        <v>6.138565426875857</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3355,19 +3353,19 @@
         <v>60</v>
       </c>
       <c r="B41" t="n">
-        <v>3862735</v>
+        <v>52776723</v>
       </c>
       <c r="C41" t="n">
-        <v>1705022100</v>
+        <v>1711329300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FG24051705022100</t>
+          <t>FG24051711329300</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-01-12 09:15:00</t>
+          <t>2024-03-25 09:15:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3376,34 +3374,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1735</v>
+        <v>1504</v>
       </c>
       <c r="H41" t="n">
-        <v>1746</v>
+        <v>1504</v>
       </c>
       <c r="I41" t="n">
-        <v>1731</v>
+        <v>1485</v>
       </c>
       <c r="J41" t="n">
-        <v>1746</v>
+        <v>1487</v>
       </c>
       <c r="K41" t="n">
-        <v>73277</v>
+        <v>173173</v>
       </c>
       <c r="L41" t="n">
-        <v>619126</v>
+        <v>733693</v>
       </c>
       <c r="M41" t="n">
-        <v>1748.009496652629</v>
+        <v>1505.960003741323</v>
       </c>
       <c r="N41" t="n">
-        <v>1757.068067454411</v>
+        <v>1515.291558122703</v>
       </c>
       <c r="O41" t="n">
-        <v>9.05857080178157</v>
+        <v>9.331554381380556</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3427,19 +3425,19 @@
         <v>59</v>
       </c>
       <c r="B42" t="n">
-        <v>3889307</v>
+        <v>52807383</v>
       </c>
       <c r="C42" t="n">
-        <v>1705023000</v>
+        <v>1711330200</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FG24051705023000</t>
+          <t>FG24051711330200</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-01-12 09:30:00</t>
+          <t>2024-03-25 09:30:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3448,34 +3446,34 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1745</v>
+        <v>1486</v>
       </c>
       <c r="H42" t="n">
-        <v>1746</v>
+        <v>1491</v>
       </c>
       <c r="I42" t="n">
-        <v>1733</v>
+        <v>1478</v>
       </c>
       <c r="J42" t="n">
-        <v>1734</v>
+        <v>1479</v>
       </c>
       <c r="K42" t="n">
-        <v>35825</v>
+        <v>87530</v>
       </c>
       <c r="L42" t="n">
-        <v>618969</v>
+        <v>752784</v>
       </c>
       <c r="M42" t="n">
-        <v>1743.339664435086</v>
+        <v>1496.973335827549</v>
       </c>
       <c r="N42" t="n">
-        <v>1752.87387337179</v>
+        <v>1508.693093009485</v>
       </c>
       <c r="O42" t="n">
-        <v>9.53420893670409</v>
+        <v>11.71975718193607</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -3499,19 +3497,19 @@
         <v>58</v>
       </c>
       <c r="B43" t="n">
-        <v>3922011</v>
+        <v>52837022</v>
       </c>
       <c r="C43" t="n">
-        <v>1705023900</v>
+        <v>1711331100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FG24051705023900</t>
+          <t>FG24051711331100</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-01-12 09:45:00</t>
+          <t>2024-03-25 09:45:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3520,34 +3518,34 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1734</v>
+        <v>1479</v>
       </c>
       <c r="H43" t="n">
-        <v>1740</v>
+        <v>1490</v>
       </c>
       <c r="I43" t="n">
-        <v>1730</v>
+        <v>1477</v>
       </c>
       <c r="J43" t="n">
-        <v>1737</v>
+        <v>1489</v>
       </c>
       <c r="K43" t="n">
-        <v>34782</v>
+        <v>52423</v>
       </c>
       <c r="L43" t="n">
-        <v>619840</v>
+        <v>762170</v>
       </c>
       <c r="M43" t="n">
-        <v>1741.226442956724</v>
+        <v>1494.315557218366</v>
       </c>
       <c r="N43" t="n">
-        <v>1749.987714576919</v>
+        <v>1505.112530644124</v>
       </c>
       <c r="O43" t="n">
-        <v>8.761271620194975</v>
+        <v>10.79697342575787</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3571,19 +3569,19 @@
         <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>3950627</v>
+        <v>52872792</v>
       </c>
       <c r="C44" t="n">
-        <v>1705024800</v>
+        <v>1711332000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FG24051705024800</t>
+          <t>FG24051711332000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-01-12 10:00:00</t>
+          <t>2024-03-25 10:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3592,34 +3590,34 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1737</v>
+        <v>1489</v>
       </c>
       <c r="H44" t="n">
-        <v>1743</v>
+        <v>1490</v>
       </c>
       <c r="I44" t="n">
-        <v>1734</v>
+        <v>1486</v>
       </c>
       <c r="J44" t="n">
-        <v>1741</v>
+        <v>1489</v>
       </c>
       <c r="K44" t="n">
-        <v>24067</v>
+        <v>14826</v>
       </c>
       <c r="L44" t="n">
-        <v>619484</v>
+        <v>757525</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.15096197115</v>
+        <v>1492.543704812244</v>
       </c>
       <c r="N44" t="n">
-        <v>1748.353584653843</v>
+        <v>1502.18297961792</v>
       </c>
       <c r="O44" t="n">
-        <v>7.202622682693118</v>
+        <v>9.639274805675541</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -3643,19 +3641,19 @@
         <v>56</v>
       </c>
       <c r="B45" t="n">
-        <v>3981287</v>
+        <v>52899364</v>
       </c>
       <c r="C45" t="n">
-        <v>1705025700</v>
+        <v>1711332900</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FG24051705025700</t>
+          <t>FG24051711332900</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-12 10:15:00</t>
+          <t>2024-03-25 10:15:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3664,34 +3662,34 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1740</v>
+        <v>1489</v>
       </c>
       <c r="H45" t="n">
-        <v>1746</v>
+        <v>1495</v>
       </c>
       <c r="I45" t="n">
-        <v>1736</v>
+        <v>1487</v>
       </c>
       <c r="J45" t="n">
-        <v>1744</v>
+        <v>1493</v>
       </c>
       <c r="K45" t="n">
-        <v>31029</v>
+        <v>41493</v>
       </c>
       <c r="L45" t="n">
-        <v>619068</v>
+        <v>756930</v>
       </c>
       <c r="M45" t="n">
-        <v>1742.1006413141</v>
+        <v>1492.695803208163</v>
       </c>
       <c r="N45" t="n">
-        <v>1747.562023807689</v>
+        <v>1500.513346960116</v>
       </c>
       <c r="O45" t="n">
-        <v>5.461382493589554</v>
+        <v>7.817543751953281</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -3715,19 +3713,19 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>4039541</v>
+        <v>52955574</v>
       </c>
       <c r="C46" t="n">
-        <v>1705027500</v>
+        <v>1711334700</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FG24051705027500</t>
+          <t>FG24051711334700</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-01-12 10:45:00</t>
+          <t>2024-03-25 10:45:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3736,34 +3734,34 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1749</v>
+        <v>1493</v>
       </c>
       <c r="H46" t="n">
-        <v>1758</v>
+        <v>1498</v>
       </c>
       <c r="I46" t="n">
-        <v>1747</v>
+        <v>1490</v>
       </c>
       <c r="J46" t="n">
-        <v>1755</v>
+        <v>1493</v>
       </c>
       <c r="K46" t="n">
-        <v>84598</v>
+        <v>30496</v>
       </c>
       <c r="L46" t="n">
-        <v>615389</v>
+        <v>749161</v>
       </c>
       <c r="M46" t="n">
-        <v>1746.400427542733</v>
+        <v>1492.797202138775</v>
       </c>
       <c r="N46" t="n">
-        <v>1748.914383115382</v>
+        <v>1499.147283876458</v>
       </c>
       <c r="O46" t="n">
-        <v>2.513955572648911</v>
+        <v>6.35008173768324</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -3778,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V46" t="inlineStr"/>
     </row>
@@ -3787,19 +3785,19 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>4070201</v>
+        <v>52987256</v>
       </c>
       <c r="C47" t="n">
-        <v>1705028400</v>
+        <v>1711335600</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FG24051705028400</t>
+          <t>FG24051711335600</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-12 11:00:00</t>
+          <t>2024-03-25 11:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3808,31 +3806,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1756</v>
+        <v>1493</v>
       </c>
       <c r="H47" t="n">
-        <v>1771</v>
+        <v>1502</v>
       </c>
       <c r="I47" t="n">
-        <v>1754</v>
+        <v>1493</v>
       </c>
       <c r="J47" t="n">
-        <v>1765</v>
+        <v>1497</v>
       </c>
       <c r="K47" t="n">
-        <v>79202</v>
+        <v>46302</v>
       </c>
       <c r="L47" t="n">
-        <v>609354</v>
+        <v>746766</v>
       </c>
       <c r="M47" t="n">
-        <v>1752.600285028489</v>
+        <v>1494.198134759184</v>
       </c>
       <c r="N47" t="n">
-        <v>1751.839040730767</v>
+        <v>1498.756868626193</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7612442977215323</v>
+        <v>4.558733867009551</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -3844,34 +3842,36 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>4352</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U47" t="n">
         <v>2</v>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>4098817</v>
+        <v>53014850</v>
       </c>
       <c r="C48" t="n">
-        <v>1705029300</v>
+        <v>1711336500</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FG24051705029300</t>
+          <t>FG24051711336500</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-12 11:15:00</t>
+          <t>2024-03-25 11:15:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3880,31 +3880,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1765</v>
+        <v>1496</v>
       </c>
       <c r="H48" t="n">
-        <v>1775</v>
+        <v>1499</v>
       </c>
       <c r="I48" t="n">
-        <v>1763</v>
+        <v>1495</v>
       </c>
       <c r="J48" t="n">
-        <v>1766</v>
+        <v>1499</v>
       </c>
       <c r="K48" t="n">
-        <v>76793</v>
+        <v>17806</v>
       </c>
       <c r="L48" t="n">
-        <v>601248</v>
+        <v>748103</v>
       </c>
       <c r="M48" t="n">
-        <v>1757.066856685659</v>
+        <v>1495.798756506123</v>
       </c>
       <c r="N48" t="n">
-        <v>1754.4137605979</v>
+        <v>1498.801074330521</v>
       </c>
       <c r="O48" t="n">
-        <v>2.653096087758968</v>
+        <v>3.002317824398915</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>4129477</v>
+        <v>53045510</v>
       </c>
       <c r="C49" t="n">
-        <v>1705030200</v>
+        <v>1711337400</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FG24051705030200</t>
+          <t>FG24051711337400</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-12 11:30:00</t>
+          <t>2024-03-25 11:30:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3952,31 +3952,31 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1766</v>
+        <v>1498</v>
       </c>
       <c r="H49" t="n">
-        <v>1771</v>
+        <v>1503</v>
       </c>
       <c r="I49" t="n">
-        <v>1762</v>
+        <v>1496</v>
       </c>
       <c r="J49" t="n">
-        <v>1763</v>
+        <v>1497</v>
       </c>
       <c r="K49" t="n">
-        <v>39461</v>
+        <v>31763</v>
       </c>
       <c r="L49" t="n">
-        <v>601714</v>
+        <v>746391</v>
       </c>
       <c r="M49" t="n">
-        <v>1759.044571123773</v>
+        <v>1496.199171004082</v>
       </c>
       <c r="N49" t="n">
-        <v>1755.974895034646</v>
+        <v>1498.473606270427</v>
       </c>
       <c r="O49" t="n">
-        <v>3.06967608912737</v>
+        <v>2.274435266344881</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4003,19 +4003,19 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>4282778</v>
+        <v>53077192</v>
       </c>
       <c r="C50" t="n">
-        <v>1705038300</v>
+        <v>1711345500</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FG24051705038300</t>
+          <t>FG24051711345500</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-12 13:45:00</t>
+          <t>2024-03-25 13:45:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4024,31 +4024,31 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1763</v>
+        <v>1496</v>
       </c>
       <c r="H50" t="n">
-        <v>1763</v>
+        <v>1497</v>
       </c>
       <c r="I50" t="n">
-        <v>1746</v>
+        <v>1491</v>
       </c>
       <c r="J50" t="n">
-        <v>1747</v>
+        <v>1495</v>
       </c>
       <c r="K50" t="n">
-        <v>86527</v>
+        <v>33537</v>
       </c>
       <c r="L50" t="n">
-        <v>595008</v>
+        <v>742377</v>
       </c>
       <c r="M50" t="n">
-        <v>1755.029714082516</v>
+        <v>1495.799447336055</v>
       </c>
       <c r="N50" t="n">
-        <v>1754.343095937437</v>
+        <v>1497.842041493985</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6866181450782278</v>
+        <v>2.042594157930807</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4075,19 +4075,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>4313438</v>
+        <v>53106830</v>
       </c>
       <c r="C51" t="n">
-        <v>1705039200</v>
+        <v>1711346400</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FG24051705039200</t>
+          <t>FG24051711346400</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-01-12 14:00:00</t>
+          <t>2024-03-25 14:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4096,31 +4096,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1747</v>
+        <v>1495</v>
       </c>
       <c r="H51" t="n">
-        <v>1751</v>
+        <v>1497</v>
       </c>
       <c r="I51" t="n">
-        <v>1740</v>
+        <v>1492</v>
       </c>
       <c r="J51" t="n">
-        <v>1741</v>
+        <v>1493</v>
       </c>
       <c r="K51" t="n">
-        <v>54036</v>
+        <v>15622</v>
       </c>
       <c r="L51" t="n">
-        <v>594754</v>
+        <v>744236</v>
       </c>
       <c r="M51" t="n">
-        <v>1750.353142721677</v>
+        <v>1494.866298224036</v>
       </c>
       <c r="N51" t="n">
-        <v>1751.917078494267</v>
+        <v>1496.961670313261</v>
       </c>
       <c r="O51" t="n">
-        <v>1.563935772589502</v>
+        <v>2.095372089224156</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4147,19 +4147,19 @@
         <v>49</v>
       </c>
       <c r="B52" t="n">
-        <v>4344098</v>
+        <v>53135446</v>
       </c>
       <c r="C52" t="n">
-        <v>1705040100</v>
+        <v>1711347300</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FG24051705040100</t>
+          <t>FG24051711347300</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-12 14:15:00</t>
+          <t>2024-03-25 14:15:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4168,31 +4168,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1740</v>
+        <v>1493</v>
       </c>
       <c r="H52" t="n">
-        <v>1749</v>
+        <v>1495</v>
       </c>
       <c r="I52" t="n">
-        <v>1740</v>
+        <v>1488</v>
       </c>
       <c r="J52" t="n">
-        <v>1748</v>
+        <v>1489</v>
       </c>
       <c r="K52" t="n">
-        <v>31629</v>
+        <v>37670</v>
       </c>
       <c r="L52" t="n">
-        <v>596990</v>
+        <v>745038</v>
       </c>
       <c r="M52" t="n">
-        <v>1749.568761814452</v>
+        <v>1492.910865482691</v>
       </c>
       <c r="N52" t="n">
-        <v>1751.2048824044</v>
+        <v>1495.514093892668</v>
       </c>
       <c r="O52" t="n">
-        <v>1.636120589948177</v>
+        <v>2.603228409976737</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4219,19 +4219,19 @@
         <v>48</v>
       </c>
       <c r="B53" t="n">
-        <v>4374758</v>
+        <v>53167129</v>
       </c>
       <c r="C53" t="n">
-        <v>1705041000</v>
+        <v>1711348200</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FG24051705041000</t>
+          <t>FG24051711348200</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-12 14:30:00</t>
+          <t>2024-03-25 14:30:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4240,40 +4240,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1748</v>
+        <v>1489</v>
       </c>
       <c r="H53" t="n">
-        <v>1748</v>
+        <v>1490</v>
       </c>
       <c r="I53" t="n">
-        <v>1736</v>
+        <v>1479</v>
       </c>
       <c r="J53" t="n">
-        <v>1742</v>
+        <v>1484</v>
       </c>
       <c r="K53" t="n">
-        <v>41609</v>
+        <v>56045</v>
       </c>
       <c r="L53" t="n">
-        <v>590574</v>
+        <v>746971</v>
       </c>
       <c r="M53" t="n">
-        <v>1747.045841209635</v>
+        <v>1489.940576988461</v>
       </c>
       <c r="N53" t="n">
-        <v>1749.531267421782</v>
+        <v>1493.420622275819</v>
       </c>
       <c r="O53" t="n">
-        <v>2.485426212147104</v>
+        <v>3.48004528735828</v>
       </c>
       <c r="P53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1777</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>1742</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V53" t="inlineStr"/>
     </row>
@@ -4291,19 +4291,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="n">
-        <v>4403374</v>
+        <v>53196767</v>
       </c>
       <c r="C54" t="n">
-        <v>1705041900</v>
+        <v>1711349100</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FG24051705041900</t>
+          <t>FG24051711349100</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-12 14:45:00</t>
+          <t>2024-03-25 14:45:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4312,40 +4312,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1742</v>
+        <v>1485</v>
       </c>
       <c r="H54" t="n">
-        <v>1744</v>
+        <v>1491</v>
       </c>
       <c r="I54" t="n">
-        <v>1731</v>
+        <v>1484</v>
       </c>
       <c r="J54" t="n">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="K54" t="n">
-        <v>45405</v>
+        <v>28725</v>
       </c>
       <c r="L54" t="n">
-        <v>591405</v>
+        <v>745433</v>
       </c>
       <c r="M54" t="n">
-        <v>1744.030560806423</v>
+        <v>1489.62705132564</v>
       </c>
       <c r="N54" t="n">
-        <v>1747.434673345094</v>
+        <v>1492.616872771124</v>
       </c>
       <c r="O54" t="n">
-        <v>3.404112538670688</v>
+        <v>2.98982144548404</v>
       </c>
       <c r="P54" t="n">
         <v>-1</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1489</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4363,19 +4363,19 @@
         <v>46</v>
       </c>
       <c r="B55" t="n">
-        <v>4434034</v>
+        <v>53227427</v>
       </c>
       <c r="C55" t="n">
-        <v>1705042800</v>
+        <v>1711350000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FG24051705042800</t>
+          <t>FG24051711350000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-12 15:00:00</t>
+          <t>2024-03-25 15:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4384,31 +4384,31 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="H55" t="n">
-        <v>1740</v>
+        <v>1493</v>
       </c>
       <c r="I55" t="n">
-        <v>1732</v>
+        <v>1487</v>
       </c>
       <c r="J55" t="n">
-        <v>1739</v>
+        <v>1489</v>
       </c>
       <c r="K55" t="n">
-        <v>50784</v>
+        <v>40843</v>
       </c>
       <c r="L55" t="n">
-        <v>591191</v>
+        <v>741614</v>
       </c>
       <c r="M55" t="n">
-        <v>1742.353707204282</v>
+        <v>1489.418034217094</v>
       </c>
       <c r="N55" t="n">
-        <v>1745.901096373258</v>
+        <v>1491.959259540011</v>
       </c>
       <c r="O55" t="n">
-        <v>3.547389168976224</v>
+        <v>2.541225322917171</v>
       </c>
       <c r="P55" t="n">
         <v>-1</v>
@@ -4435,19 +4435,19 @@
         <v>45</v>
       </c>
       <c r="B56" t="n">
-        <v>4870428</v>
+        <v>53293857</v>
       </c>
       <c r="C56" t="n">
-        <v>1705065300</v>
+        <v>1711372500</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FG24051705065300</t>
+          <t>FG24051711372500</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-12 21:15:00</t>
+          <t>2024-03-25 21:15:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4456,31 +4456,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1740</v>
+        <v>1489</v>
       </c>
       <c r="H56" t="n">
-        <v>1744</v>
+        <v>1493</v>
       </c>
       <c r="I56" t="n">
-        <v>1733</v>
+        <v>1487</v>
       </c>
       <c r="J56" t="n">
-        <v>1734</v>
+        <v>1491</v>
       </c>
       <c r="K56" t="n">
-        <v>86596</v>
+        <v>53385</v>
       </c>
       <c r="L56" t="n">
-        <v>579105</v>
+        <v>725682</v>
       </c>
       <c r="M56" t="n">
-        <v>1739.569138136188</v>
+        <v>1489.945356144729</v>
       </c>
       <c r="N56" t="n">
-        <v>1743.73726066903</v>
+        <v>1491.784848714554</v>
       </c>
       <c r="O56" t="n">
-        <v>4.16812253284138</v>
+        <v>1.839492569825097</v>
       </c>
       <c r="P56" t="n">
         <v>-1</v>
@@ -4507,19 +4507,19 @@
         <v>44</v>
       </c>
       <c r="B57" t="n">
-        <v>4892912</v>
+        <v>53323495</v>
       </c>
       <c r="C57" t="n">
-        <v>1705066200</v>
+        <v>1711373400</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FG24051705066200</t>
+          <t>FG24051711373400</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-12 21:30:00</t>
+          <t>2024-03-25 21:30:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1735</v>
+        <v>1491</v>
       </c>
       <c r="H57" t="n">
-        <v>1737</v>
+        <v>1491</v>
       </c>
       <c r="I57" t="n">
-        <v>1719</v>
+        <v>1484</v>
       </c>
       <c r="J57" t="n">
-        <v>1725</v>
+        <v>1486</v>
       </c>
       <c r="K57" t="n">
-        <v>80225</v>
+        <v>32330</v>
       </c>
       <c r="L57" t="n">
-        <v>589143</v>
+        <v>731169</v>
       </c>
       <c r="M57" t="n">
-        <v>1734.712758757459</v>
+        <v>1488.63023742982</v>
       </c>
       <c r="N57" t="n">
-        <v>1740.330486001933</v>
+        <v>1490.733058039181</v>
       </c>
       <c r="O57" t="n">
-        <v>5.617727244474509</v>
+        <v>2.102820609361288</v>
       </c>
       <c r="P57" t="n">
         <v>-1</v>
@@ -4579,19 +4579,19 @@
         <v>43</v>
       </c>
       <c r="B58" t="n">
-        <v>4917440</v>
+        <v>53353133</v>
       </c>
       <c r="C58" t="n">
-        <v>1705067100</v>
+        <v>1711374300</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FG24051705067100</t>
+          <t>FG24051711374300</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-01-12 21:45:00</t>
+          <t>2024-03-25 21:45:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4600,31 +4600,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1725</v>
+        <v>1487</v>
       </c>
       <c r="H58" t="n">
-        <v>1731</v>
+        <v>1491</v>
       </c>
       <c r="I58" t="n">
-        <v>1720</v>
+        <v>1484</v>
       </c>
       <c r="J58" t="n">
-        <v>1721</v>
+        <v>1485</v>
       </c>
       <c r="K58" t="n">
-        <v>41734</v>
+        <v>27931</v>
       </c>
       <c r="L58" t="n">
-        <v>599901</v>
+        <v>733181</v>
       </c>
       <c r="M58" t="n">
-        <v>1730.141839171639</v>
+        <v>1487.420158286546</v>
       </c>
       <c r="N58" t="n">
-        <v>1736.8158521834</v>
+        <v>1489.690683850239</v>
       </c>
       <c r="O58" t="n">
-        <v>6.674013011760735</v>
+        <v>2.270525563692445</v>
       </c>
       <c r="P58" t="n">
         <v>-1</v>
@@ -4651,19 +4651,19 @@
         <v>42</v>
       </c>
       <c r="B59" t="n">
-        <v>4952188</v>
+        <v>53381749</v>
       </c>
       <c r="C59" t="n">
-        <v>1705068000</v>
+        <v>1711375200</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FG24051705068000</t>
+          <t>FG24051711375200</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-01-12 22:00:00</t>
+          <t>2024-03-25 22:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4672,31 +4672,31 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1722</v>
+        <v>1485</v>
       </c>
       <c r="H59" t="n">
-        <v>1730</v>
+        <v>1487</v>
       </c>
       <c r="I59" t="n">
-        <v>1720</v>
+        <v>1483</v>
       </c>
       <c r="J59" t="n">
-        <v>1726</v>
+        <v>1486</v>
       </c>
       <c r="K59" t="n">
-        <v>31939</v>
+        <v>16714</v>
       </c>
       <c r="L59" t="n">
-        <v>599032</v>
+        <v>733500</v>
       </c>
       <c r="M59" t="n">
-        <v>1728.761226114426</v>
+        <v>1486.946772191031</v>
       </c>
       <c r="N59" t="n">
-        <v>1734.8493336046</v>
+        <v>1489.019650422923</v>
       </c>
       <c r="O59" t="n">
-        <v>6.08810749017357</v>
+        <v>2.072878231891764</v>
       </c>
       <c r="P59" t="n">
         <v>-1</v>
@@ -4723,19 +4723,19 @@
         <v>41</v>
       </c>
       <c r="B60" t="n">
-        <v>4984892</v>
+        <v>53412409</v>
       </c>
       <c r="C60" t="n">
-        <v>1705068900</v>
+        <v>1711376100</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FG24051705068900</t>
+          <t>FG24051711376100</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-01-12 22:15:00</t>
+          <t>2024-03-25 22:15:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4744,31 +4744,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1725</v>
+        <v>1487</v>
       </c>
       <c r="H60" t="n">
-        <v>1739</v>
+        <v>1490</v>
       </c>
       <c r="I60" t="n">
-        <v>1722</v>
+        <v>1485</v>
       </c>
       <c r="J60" t="n">
-        <v>1730</v>
+        <v>1486</v>
       </c>
       <c r="K60" t="n">
-        <v>65405</v>
+        <v>14569</v>
       </c>
       <c r="L60" t="n">
-        <v>595941</v>
+        <v>733951</v>
       </c>
       <c r="M60" t="n">
-        <v>1729.174150742951</v>
+        <v>1486.631181460687</v>
       </c>
       <c r="N60" t="n">
-        <v>1733.967636585582</v>
+        <v>1488.4706230733</v>
       </c>
       <c r="O60" t="n">
-        <v>4.793485842630616</v>
+        <v>1.839441612612973</v>
       </c>
       <c r="P60" t="n">
         <v>-1</v>
@@ -4795,19 +4795,19 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>5005332</v>
+        <v>53443069</v>
       </c>
       <c r="C61" t="n">
-        <v>1705069800</v>
+        <v>1711377000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FG24051705069800</t>
+          <t>FG24051711377000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-12 22:30:00</t>
+          <t>2024-03-25 22:30:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4816,31 +4816,31 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1730</v>
+        <v>1486</v>
       </c>
       <c r="H61" t="n">
-        <v>1734</v>
+        <v>1486</v>
       </c>
       <c r="I61" t="n">
-        <v>1725</v>
+        <v>1483</v>
       </c>
       <c r="J61" t="n">
-        <v>1732</v>
+        <v>1486</v>
       </c>
       <c r="K61" t="n">
-        <v>24034</v>
+        <v>10134</v>
       </c>
       <c r="L61" t="n">
-        <v>589439</v>
+        <v>735264</v>
       </c>
       <c r="M61" t="n">
-        <v>1730.116100495301</v>
+        <v>1486.420787640458</v>
       </c>
       <c r="N61" t="n">
-        <v>1733.609884479112</v>
+        <v>1488.021418878155</v>
       </c>
       <c r="O61" t="n">
-        <v>3.493783983811454</v>
+        <v>1.600631237696462</v>
       </c>
       <c r="P61" t="n">
         <v>-1</v>
@@ -4867,19 +4867,19 @@
         <v>39</v>
       </c>
       <c r="B62" t="n">
-        <v>5018618</v>
+        <v>53474751</v>
       </c>
       <c r="C62" t="n">
-        <v>1705070700</v>
+        <v>1711377900</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FG24051705070700</t>
+          <t>FG24051711377900</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-12 22:45:00</t>
+          <t>2024-03-25 22:45:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4888,31 +4888,31 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1732</v>
+        <v>1485</v>
       </c>
       <c r="H62" t="n">
-        <v>1737</v>
+        <v>1487</v>
       </c>
       <c r="I62" t="n">
-        <v>1726</v>
+        <v>1476</v>
       </c>
       <c r="J62" t="n">
-        <v>1734</v>
+        <v>1485</v>
       </c>
       <c r="K62" t="n">
-        <v>31351</v>
+        <v>59683</v>
       </c>
       <c r="L62" t="n">
-        <v>587881</v>
+        <v>736195</v>
       </c>
       <c r="M62" t="n">
-        <v>1731.410733663534</v>
+        <v>1485.947191760306</v>
       </c>
       <c r="N62" t="n">
-        <v>1733.680814573819</v>
+        <v>1487.472069991217</v>
       </c>
       <c r="O62" t="n">
-        <v>2.270080910284832</v>
+        <v>1.524878230911781</v>
       </c>
       <c r="P62" t="n">
         <v>-1</v>
@@ -4939,19 +4939,19 @@
         <v>38</v>
       </c>
       <c r="B63" t="n">
-        <v>5025773</v>
+        <v>53504389</v>
       </c>
       <c r="C63" t="n">
-        <v>1705071600</v>
+        <v>1711378800</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FG24051705071600</t>
+          <t>FG24051711378800</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-12 23:00:00</t>
+          <t>2024-03-25 23:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4960,34 +4960,34 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="H63" t="n">
-        <v>1742</v>
+        <v>1485</v>
       </c>
       <c r="I63" t="n">
-        <v>1732</v>
+        <v>1477</v>
       </c>
       <c r="J63" t="n">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="K63" t="n">
-        <v>41776</v>
+        <v>32384</v>
       </c>
       <c r="L63" t="n">
-        <v>584158</v>
+        <v>735959</v>
       </c>
       <c r="M63" t="n">
-        <v>1733.60715577569</v>
+        <v>1484.631461173537</v>
       </c>
       <c r="N63" t="n">
-        <v>1734.466121014943</v>
+        <v>1486.477148174632</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8589652392531661</v>
+        <v>1.845687001095257</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -4996,36 +4996,34 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
-      </c>
-      <c r="V63" t="n">
-        <v>48</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B64" t="n">
-        <v>5084027</v>
+        <v>53537093</v>
       </c>
       <c r="C64" t="n">
-        <v>1705281300</v>
+        <v>1711415700</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FG24051705281300</t>
+          <t>FG24051711415700</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-15 09:15:00</t>
+          <t>2024-03-26 09:15:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5034,34 +5032,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1734</v>
+        <v>1483</v>
       </c>
       <c r="H64" t="n">
-        <v>1743</v>
+        <v>1485</v>
       </c>
       <c r="I64" t="n">
-        <v>1728</v>
+        <v>1479</v>
       </c>
       <c r="J64" t="n">
-        <v>1737</v>
+        <v>1480</v>
       </c>
       <c r="K64" t="n">
-        <v>75035</v>
+        <v>31328</v>
       </c>
       <c r="L64" t="n">
-        <v>567396</v>
+        <v>731435</v>
       </c>
       <c r="M64" t="n">
-        <v>1734.73810385046</v>
+        <v>1483.087640782358</v>
       </c>
       <c r="N64" t="n">
-        <v>1734.926826284953</v>
+        <v>1485.299484870154</v>
       </c>
       <c r="O64" t="n">
-        <v>0.1887224344932292</v>
+        <v>2.211844087795498</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5076,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V64" t="inlineStr"/>
     </row>
@@ -5085,19 +5083,19 @@
         <v>36</v>
       </c>
       <c r="B65" t="n">
-        <v>5102423</v>
+        <v>53568775</v>
       </c>
       <c r="C65" t="n">
-        <v>1705282200</v>
+        <v>1711416600</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FG24051705282200</t>
+          <t>FG24051711416600</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-15 09:30:00</t>
+          <t>2024-03-26 09:30:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5106,40 +5104,40 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1738</v>
+        <v>1481</v>
       </c>
       <c r="H65" t="n">
-        <v>1742</v>
+        <v>1485</v>
       </c>
       <c r="I65" t="n">
-        <v>1709</v>
+        <v>1477</v>
       </c>
       <c r="J65" t="n">
-        <v>1717</v>
+        <v>1478</v>
       </c>
       <c r="K65" t="n">
-        <v>114355</v>
+        <v>25943</v>
       </c>
       <c r="L65" t="n">
-        <v>568265</v>
+        <v>732507</v>
       </c>
       <c r="M65" t="n">
-        <v>1728.825402566973</v>
+        <v>1481.391760521572</v>
       </c>
       <c r="N65" t="n">
-        <v>1731.667403324052</v>
+        <v>1483.972305802853</v>
       </c>
       <c r="O65" t="n">
-        <v>2.842000757079177</v>
+        <v>2.58054528128082</v>
       </c>
       <c r="P65" t="n">
         <v>-1</v>
       </c>
       <c r="Q65" t="n">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1717</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5157,19 +5155,19 @@
         <v>35</v>
       </c>
       <c r="B66" t="n">
-        <v>5133083</v>
+        <v>53599435</v>
       </c>
       <c r="C66" t="n">
-        <v>1705283100</v>
+        <v>1711417500</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FG24051705283100</t>
+          <t>FG24051711417500</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-01-15 09:45:00</t>
+          <t>2024-03-26 09:45:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5178,31 +5176,31 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1717</v>
+        <v>1479</v>
       </c>
       <c r="H66" t="n">
-        <v>1728</v>
+        <v>1481</v>
       </c>
       <c r="I66" t="n">
-        <v>1717</v>
+        <v>1469</v>
       </c>
       <c r="J66" t="n">
-        <v>1726</v>
+        <v>1472</v>
       </c>
       <c r="K66" t="n">
-        <v>45671</v>
+        <v>58855</v>
       </c>
       <c r="L66" t="n">
-        <v>579452</v>
+        <v>735639</v>
       </c>
       <c r="M66" t="n">
-        <v>1727.883601711316</v>
+        <v>1478.261173681048</v>
       </c>
       <c r="N66" t="n">
-        <v>1730.636966356043</v>
+        <v>1481.795522929607</v>
       </c>
       <c r="O66" t="n">
-        <v>2.753364644727071</v>
+        <v>3.53434924855901</v>
       </c>
       <c r="P66" t="n">
         <v>-1</v>
@@ -5229,19 +5227,19 @@
         <v>34</v>
       </c>
       <c r="B67" t="n">
-        <v>5163743</v>
+        <v>53629073</v>
       </c>
       <c r="C67" t="n">
-        <v>1705284000</v>
+        <v>1711418400</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FG24051705284000</t>
+          <t>FG24051711418400</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-15 10:00:00</t>
+          <t>2024-03-26 10:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5250,31 +5248,31 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1726</v>
+        <v>1473</v>
       </c>
       <c r="H67" t="n">
-        <v>1735</v>
+        <v>1482</v>
       </c>
       <c r="I67" t="n">
-        <v>1726</v>
+        <v>1467</v>
       </c>
       <c r="J67" t="n">
-        <v>1732</v>
+        <v>1480</v>
       </c>
       <c r="K67" t="n">
-        <v>37774</v>
+        <v>49832</v>
       </c>
       <c r="L67" t="n">
-        <v>581037</v>
+        <v>739511</v>
       </c>
       <c r="M67" t="n">
-        <v>1729.25573447421</v>
+        <v>1478.840782454032</v>
       </c>
       <c r="N67" t="n">
-        <v>1730.884790654944</v>
+        <v>1481.469064215133</v>
       </c>
       <c r="O67" t="n">
-        <v>1.629056180733642</v>
+        <v>2.62828176110088</v>
       </c>
       <c r="P67" t="n">
         <v>-1</v>
@@ -5301,19 +5299,19 @@
         <v>33</v>
       </c>
       <c r="B68" t="n">
-        <v>5194403</v>
+        <v>53659733</v>
       </c>
       <c r="C68" t="n">
-        <v>1705284900</v>
+        <v>1711419300</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FG24051705284900</t>
+          <t>FG24051711419300</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-15 10:15:00</t>
+          <t>2024-03-26 10:15:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5322,34 +5320,34 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1732</v>
+        <v>1481</v>
       </c>
       <c r="H68" t="n">
-        <v>1741</v>
+        <v>1481</v>
       </c>
       <c r="I68" t="n">
-        <v>1730</v>
+        <v>1476</v>
       </c>
       <c r="J68" t="n">
-        <v>1735</v>
+        <v>1476</v>
       </c>
       <c r="K68" t="n">
-        <v>32003</v>
+        <v>17115</v>
       </c>
       <c r="L68" t="n">
-        <v>579950</v>
+        <v>738008</v>
       </c>
       <c r="M68" t="n">
-        <v>1731.170489649474</v>
+        <v>1477.893854969355</v>
       </c>
       <c r="N68" t="n">
-        <v>1731.633010535863</v>
+        <v>1480.474688903291</v>
       </c>
       <c r="O68" t="n">
-        <v>0.4625208863894841</v>
+        <v>2.580833933935992</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -5358,36 +5356,34 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>-1488</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
-      </c>
-      <c r="V68" t="n">
-        <v>48</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B69" t="n">
-        <v>5253679</v>
+        <v>53720031</v>
       </c>
       <c r="C69" t="n">
-        <v>1705286700</v>
+        <v>1711421100</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FG24051705286700</t>
+          <t>FG24051711421100</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-15 10:45:00</t>
+          <t>2024-03-26 10:45:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5396,34 +5392,34 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1736</v>
+        <v>1477</v>
       </c>
       <c r="H69" t="n">
-        <v>1738</v>
+        <v>1489</v>
       </c>
       <c r="I69" t="n">
-        <v>1732</v>
+        <v>1477</v>
       </c>
       <c r="J69" t="n">
-        <v>1737</v>
+        <v>1489</v>
       </c>
       <c r="K69" t="n">
-        <v>17497</v>
+        <v>43855</v>
       </c>
       <c r="L69" t="n">
-        <v>579839</v>
+        <v>737857</v>
       </c>
       <c r="M69" t="n">
-        <v>1733.113659766316</v>
+        <v>1481.595903312903</v>
       </c>
       <c r="N69" t="n">
-        <v>1732.60882680207</v>
+        <v>1482.024745466329</v>
       </c>
       <c r="O69" t="n">
-        <v>0.5048329642463614</v>
+        <v>0.4288421534254212</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -5438,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V69" t="inlineStr"/>
     </row>
@@ -5447,19 +5443,19 @@
         <v>31</v>
       </c>
       <c r="B70" t="n">
-        <v>5284339</v>
+        <v>53749669</v>
       </c>
       <c r="C70" t="n">
-        <v>1705287600</v>
+        <v>1711422000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FG24051705287600</t>
+          <t>FG24051711422000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-15 11:00:00</t>
+          <t>2024-03-26 11:00:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5468,40 +5464,40 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1736</v>
+        <v>1488</v>
       </c>
       <c r="H70" t="n">
-        <v>1746</v>
+        <v>1496</v>
       </c>
       <c r="I70" t="n">
-        <v>1735</v>
+        <v>1485</v>
       </c>
       <c r="J70" t="n">
-        <v>1737</v>
+        <v>1495</v>
       </c>
       <c r="K70" t="n">
-        <v>39142</v>
+        <v>52490</v>
       </c>
       <c r="L70" t="n">
-        <v>581367</v>
+        <v>728944</v>
       </c>
       <c r="M70" t="n">
-        <v>1734.409106510878</v>
+        <v>1486.063935541936</v>
       </c>
       <c r="N70" t="n">
-        <v>1733.407221928966</v>
+        <v>1484.383882654269</v>
       </c>
       <c r="O70" t="n">
-        <v>1.001884581911554</v>
+        <v>1.680052887666761</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -5519,19 +5515,19 @@
         <v>30</v>
       </c>
       <c r="B71" t="n">
-        <v>5317043</v>
+        <v>53779307</v>
       </c>
       <c r="C71" t="n">
-        <v>1705288500</v>
+        <v>1711422900</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FG24051705288500</t>
+          <t>FG24051711422900</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-15 11:15:00</t>
+          <t>2024-03-26 11:15:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5540,34 +5536,34 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1738</v>
+        <v>1495</v>
       </c>
       <c r="H71" t="n">
-        <v>1745</v>
+        <v>1496</v>
       </c>
       <c r="I71" t="n">
-        <v>1737</v>
+        <v>1490</v>
       </c>
       <c r="J71" t="n">
-        <v>1740</v>
+        <v>1493</v>
       </c>
       <c r="K71" t="n">
-        <v>21164</v>
+        <v>37611</v>
       </c>
       <c r="L71" t="n">
-        <v>576362</v>
+        <v>722180</v>
       </c>
       <c r="M71" t="n">
-        <v>1736.272737673919</v>
+        <v>1488.375957027957</v>
       </c>
       <c r="N71" t="n">
-        <v>1734.605908850972</v>
+        <v>1485.950449444402</v>
       </c>
       <c r="O71" t="n">
-        <v>1.666828822946627</v>
+        <v>2.425507583555373</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -5591,19 +5587,19 @@
         <v>29</v>
       </c>
       <c r="B72" t="n">
-        <v>5345659</v>
+        <v>53812011</v>
       </c>
       <c r="C72" t="n">
-        <v>1705289400</v>
+        <v>1711423800</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FG24051705289400</t>
+          <t>FG24051711423800</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-01-15 11:30:00</t>
+          <t>2024-03-26 11:30:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5612,34 +5608,34 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1741</v>
+        <v>1493</v>
       </c>
       <c r="H72" t="n">
-        <v>1742</v>
+        <v>1498</v>
       </c>
       <c r="I72" t="n">
-        <v>1735</v>
+        <v>1489</v>
       </c>
       <c r="J72" t="n">
-        <v>1737</v>
+        <v>1490</v>
       </c>
       <c r="K72" t="n">
-        <v>19785</v>
+        <v>39067</v>
       </c>
       <c r="L72" t="n">
-        <v>576929</v>
+        <v>719474</v>
       </c>
       <c r="M72" t="n">
-        <v>1736.515158449279</v>
+        <v>1488.917304685305</v>
       </c>
       <c r="N72" t="n">
-        <v>1735.041198150795</v>
+        <v>1486.686731363601</v>
       </c>
       <c r="O72" t="n">
-        <v>1.473960298484144</v>
+        <v>2.230573321703332</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -5663,19 +5659,19 @@
         <v>28</v>
       </c>
       <c r="B73" t="n">
-        <v>5462167</v>
+        <v>53840627</v>
       </c>
       <c r="C73" t="n">
-        <v>1705297500</v>
+        <v>1711431900</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FG24051705297500</t>
+          <t>FG24051711431900</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-15 13:45:00</t>
+          <t>2024-03-26 13:45:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5684,34 +5680,34 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1737</v>
+        <v>1490</v>
       </c>
       <c r="H73" t="n">
-        <v>1737</v>
+        <v>1497</v>
       </c>
       <c r="I73" t="n">
-        <v>1732</v>
+        <v>1488</v>
       </c>
       <c r="J73" t="n">
-        <v>1735</v>
+        <v>1495</v>
       </c>
       <c r="K73" t="n">
-        <v>20369</v>
+        <v>43356</v>
       </c>
       <c r="L73" t="n">
-        <v>576877</v>
+        <v>715510</v>
       </c>
       <c r="M73" t="n">
-        <v>1736.010105632853</v>
+        <v>1490.944869790203</v>
       </c>
       <c r="N73" t="n">
-        <v>1735.033707577923</v>
+        <v>1488.198234752037</v>
       </c>
       <c r="O73" t="n">
-        <v>0.9763980549296321</v>
+        <v>2.746635038165778</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -5735,19 +5731,19 @@
         <v>27</v>
       </c>
       <c r="B74" t="n">
-        <v>5492827</v>
+        <v>53871287</v>
       </c>
       <c r="C74" t="n">
-        <v>1705298400</v>
+        <v>1711432800</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FG24051705298400</t>
+          <t>FG24051711432800</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-15 14:00:00</t>
+          <t>2024-03-26 14:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5756,34 +5752,34 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1735</v>
+        <v>1495</v>
       </c>
       <c r="H74" t="n">
-        <v>1745</v>
+        <v>1496</v>
       </c>
       <c r="I74" t="n">
-        <v>1734</v>
+        <v>1488</v>
       </c>
       <c r="J74" t="n">
-        <v>1740</v>
+        <v>1492</v>
       </c>
       <c r="K74" t="n">
-        <v>29485</v>
+        <v>29979</v>
       </c>
       <c r="L74" t="n">
-        <v>579754</v>
+        <v>717903</v>
       </c>
       <c r="M74" t="n">
-        <v>1737.340070421902</v>
+        <v>1491.296579860136</v>
       </c>
       <c r="N74" t="n">
-        <v>1735.936669836482</v>
+        <v>1488.889464797121</v>
       </c>
       <c r="O74" t="n">
-        <v>1.403400585419604</v>
+        <v>2.407115063014089</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -5807,19 +5803,19 @@
         <v>26</v>
       </c>
       <c r="B75" t="n">
-        <v>5521443</v>
+        <v>53901947</v>
       </c>
       <c r="C75" t="n">
-        <v>1705299300</v>
+        <v>1711433700</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FG24051705299300</t>
+          <t>FG24051711433700</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-15 14:15:00</t>
+          <t>2024-03-26 14:15:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5828,34 +5824,34 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1740</v>
+        <v>1491</v>
       </c>
       <c r="H75" t="n">
-        <v>1743</v>
+        <v>1498</v>
       </c>
       <c r="I75" t="n">
-        <v>1736</v>
+        <v>1491</v>
       </c>
       <c r="J75" t="n">
-        <v>1739</v>
+        <v>1496</v>
       </c>
       <c r="K75" t="n">
-        <v>16159</v>
+        <v>23716</v>
       </c>
       <c r="L75" t="n">
-        <v>577466</v>
+        <v>719044</v>
       </c>
       <c r="M75" t="n">
-        <v>1737.893380281268</v>
+        <v>1492.864386573424</v>
       </c>
       <c r="N75" t="n">
-        <v>1736.493638957122</v>
+        <v>1490.182289379463</v>
       </c>
       <c r="O75" t="n">
-        <v>1.399741324146135</v>
+        <v>2.682097193960999</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -5879,19 +5875,19 @@
         <v>25</v>
       </c>
       <c r="B76" t="n">
-        <v>5554147</v>
+        <v>53928519</v>
       </c>
       <c r="C76" t="n">
-        <v>1705300200</v>
+        <v>1711434600</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FG24051705300200</t>
+          <t>FG24051711434600</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-15 14:30:00</t>
+          <t>2024-03-26 14:30:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5900,34 +5896,34 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1740</v>
+        <v>1495</v>
       </c>
       <c r="H76" t="n">
-        <v>1743</v>
+        <v>1496</v>
       </c>
       <c r="I76" t="n">
-        <v>1732</v>
+        <v>1489</v>
       </c>
       <c r="J76" t="n">
-        <v>1737</v>
+        <v>1494</v>
       </c>
       <c r="K76" t="n">
-        <v>21410</v>
+        <v>26360</v>
       </c>
       <c r="L76" t="n">
-        <v>577407</v>
+        <v>720146</v>
       </c>
       <c r="M76" t="n">
-        <v>1737.595586854179</v>
+        <v>1493.242924382283</v>
       </c>
       <c r="N76" t="n">
-        <v>1736.585704601281</v>
+        <v>1490.876418583197</v>
       </c>
       <c r="O76" t="n">
-        <v>1.009882252897569</v>
+        <v>2.366505799085644</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -5951,19 +5947,19 @@
         <v>24</v>
       </c>
       <c r="B77" t="n">
-        <v>5582763</v>
+        <v>53959179</v>
       </c>
       <c r="C77" t="n">
-        <v>1705301100</v>
+        <v>1711435500</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FG24051705301100</t>
+          <t>FG24051711435500</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-15 14:45:00</t>
+          <t>2024-03-26 14:45:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5972,49 +5968,49 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1736</v>
+        <v>1494</v>
       </c>
       <c r="H77" t="n">
-        <v>1738</v>
+        <v>1496</v>
       </c>
       <c r="I77" t="n">
-        <v>1728</v>
+        <v>1492</v>
       </c>
       <c r="J77" t="n">
-        <v>1730</v>
+        <v>1494</v>
       </c>
       <c r="K77" t="n">
-        <v>27289</v>
+        <v>15387</v>
       </c>
       <c r="L77" t="n">
-        <v>577159</v>
+        <v>716250</v>
       </c>
       <c r="M77" t="n">
-        <v>1735.063724569453</v>
+        <v>1493.495282921522</v>
       </c>
       <c r="N77" t="n">
-        <v>1735.388303764685</v>
+        <v>1491.444342477161</v>
       </c>
       <c r="O77" t="n">
-        <v>0.3245791952317632</v>
+        <v>2.050940444360549</v>
       </c>
       <c r="P77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>1</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>-1</v>
       </c>
       <c r="V77" t="inlineStr"/>
     </row>
@@ -6023,19 +6019,19 @@
         <v>23</v>
       </c>
       <c r="B78" t="n">
-        <v>5611379</v>
+        <v>53989839</v>
       </c>
       <c r="C78" t="n">
-        <v>1705302000</v>
+        <v>1711436400</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FG24051705302000</t>
+          <t>FG24051711436400</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00:00</t>
+          <t>2024-03-26 15:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6044,49 +6040,49 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1730</v>
+        <v>1495</v>
       </c>
       <c r="H78" t="n">
-        <v>1735</v>
+        <v>1496</v>
       </c>
       <c r="I78" t="n">
-        <v>1727</v>
+        <v>1488</v>
       </c>
       <c r="J78" t="n">
-        <v>1731</v>
+        <v>1491</v>
       </c>
       <c r="K78" t="n">
-        <v>42310</v>
+        <v>42462</v>
       </c>
       <c r="L78" t="n">
-        <v>575403</v>
+        <v>714369</v>
       </c>
       <c r="M78" t="n">
-        <v>1733.709149712969</v>
+        <v>1492.663521947681</v>
       </c>
       <c r="N78" t="n">
-        <v>1734.590430352924</v>
+        <v>1491.363552935859</v>
       </c>
       <c r="O78" t="n">
-        <v>0.8812806399548663</v>
+        <v>1.299969011822213</v>
       </c>
       <c r="P78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
         <v>1</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>-1</v>
       </c>
       <c r="V78" t="inlineStr"/>
     </row>
@@ -6095,19 +6091,19 @@
         <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>6183698</v>
+        <v>54063423</v>
       </c>
       <c r="C79" t="n">
-        <v>1705324500</v>
+        <v>1711458900</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FG24051705324500</t>
+          <t>FG24051711458900</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-15 21:15:00</t>
+          <t>2024-03-26 21:15:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6116,34 +6112,34 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1726</v>
+        <v>1497</v>
       </c>
       <c r="H79" t="n">
-        <v>1753</v>
+        <v>1506</v>
       </c>
       <c r="I79" t="n">
-        <v>1726</v>
+        <v>1497</v>
       </c>
       <c r="J79" t="n">
-        <v>1743</v>
+        <v>1498</v>
       </c>
       <c r="K79" t="n">
-        <v>113178</v>
+        <v>98695</v>
       </c>
       <c r="L79" t="n">
-        <v>565770</v>
+        <v>704924</v>
       </c>
       <c r="M79" t="n">
-        <v>1736.806099808646</v>
+        <v>1494.442347965121</v>
       </c>
       <c r="N79" t="n">
-        <v>1736.119443016029</v>
+        <v>1492.570179674794</v>
       </c>
       <c r="O79" t="n">
-        <v>0.6866567926174412</v>
+        <v>1.872168290327409</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -6167,19 +6163,19 @@
         <v>21</v>
       </c>
       <c r="B80" t="n">
-        <v>6183699</v>
+        <v>54094083</v>
       </c>
       <c r="C80" t="n">
-        <v>1705325400</v>
+        <v>1711459800</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FG24051705325400</t>
+          <t>FG24051711459800</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-15 21:30:00</t>
+          <t>2024-03-26 21:30:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6188,34 +6184,34 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1743</v>
+        <v>1498</v>
       </c>
       <c r="H80" t="n">
-        <v>1746</v>
+        <v>1507</v>
       </c>
       <c r="I80" t="n">
-        <v>1739</v>
+        <v>1497</v>
       </c>
       <c r="J80" t="n">
-        <v>1742</v>
+        <v>1505</v>
       </c>
       <c r="K80" t="n">
-        <v>25780</v>
+        <v>51985</v>
       </c>
       <c r="L80" t="n">
-        <v>565201</v>
+        <v>711069</v>
       </c>
       <c r="M80" t="n">
-        <v>1738.537399872431</v>
+        <v>1497.961565310081</v>
       </c>
       <c r="N80" t="n">
-        <v>1737.188635194932</v>
+        <v>1494.830147006649</v>
       </c>
       <c r="O80" t="n">
-        <v>1.348764677498366</v>
+        <v>3.131418303431701</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -6239,19 +6235,19 @@
         <v>20</v>
       </c>
       <c r="B81" t="n">
-        <v>6185738</v>
+        <v>54124743</v>
       </c>
       <c r="C81" t="n">
-        <v>1705326300</v>
+        <v>1711460700</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FG24051705326300</t>
+          <t>FG24051711460700</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-15 21:45:00</t>
+          <t>2024-03-26 21:45:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6260,34 +6256,34 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1742</v>
+        <v>1504</v>
       </c>
       <c r="H81" t="n">
-        <v>1742</v>
+        <v>1508</v>
       </c>
       <c r="I81" t="n">
-        <v>1732</v>
+        <v>1502</v>
       </c>
       <c r="J81" t="n">
-        <v>1735</v>
+        <v>1504</v>
       </c>
       <c r="K81" t="n">
-        <v>39690</v>
+        <v>31726</v>
       </c>
       <c r="L81" t="n">
-        <v>568663</v>
+        <v>711650</v>
       </c>
       <c r="M81" t="n">
-        <v>1737.358266581621</v>
+        <v>1499.974376873387</v>
       </c>
       <c r="N81" t="n">
-        <v>1736.790701523126</v>
+        <v>1496.49739300544</v>
       </c>
       <c r="O81" t="n">
-        <v>0.5675650584942105</v>
+        <v>3.476983867947183</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -6311,19 +6307,19 @@
         <v>19</v>
       </c>
       <c r="B82" t="n">
-        <v>6185739</v>
+        <v>54153359</v>
       </c>
       <c r="C82" t="n">
-        <v>1705327200</v>
+        <v>1711461600</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FG24051705327200</t>
+          <t>FG24051711461600</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-15 22:00:00</t>
+          <t>2024-03-26 22:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6332,34 +6328,34 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1735</v>
+        <v>1504</v>
       </c>
       <c r="H82" t="n">
-        <v>1738</v>
+        <v>1509</v>
       </c>
       <c r="I82" t="n">
-        <v>1733</v>
+        <v>1504</v>
       </c>
       <c r="J82" t="n">
-        <v>1738</v>
+        <v>1505</v>
       </c>
       <c r="K82" t="n">
-        <v>15901</v>
+        <v>32205</v>
       </c>
       <c r="L82" t="n">
-        <v>568983</v>
+        <v>712008</v>
       </c>
       <c r="M82" t="n">
-        <v>1737.572177721081</v>
+        <v>1501.649584582258</v>
       </c>
       <c r="N82" t="n">
-        <v>1737.010573973467</v>
+        <v>1498.043321549905</v>
       </c>
       <c r="O82" t="n">
-        <v>0.5616037476136171</v>
+        <v>3.606263032353127</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -6383,19 +6379,19 @@
         <v>18</v>
       </c>
       <c r="B83" t="n">
-        <v>6185740</v>
+        <v>54182997</v>
       </c>
       <c r="C83" t="n">
-        <v>1705328100</v>
+        <v>1711462500</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FG24051705328100</t>
+          <t>FG24051711462500</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-15 22:15:00</t>
+          <t>2024-03-26 22:15:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6404,34 +6400,34 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1738</v>
+        <v>1504</v>
       </c>
       <c r="H83" t="n">
-        <v>1741</v>
+        <v>1507</v>
       </c>
       <c r="I83" t="n">
-        <v>1733</v>
+        <v>1500</v>
       </c>
       <c r="J83" t="n">
-        <v>1740</v>
+        <v>1501</v>
       </c>
       <c r="K83" t="n">
-        <v>21154</v>
+        <v>31582</v>
       </c>
       <c r="L83" t="n">
-        <v>568094</v>
+        <v>706177</v>
       </c>
       <c r="M83" t="n">
-        <v>1738.381451814054</v>
+        <v>1501.433056388172</v>
       </c>
       <c r="N83" t="n">
-        <v>1737.554105978291</v>
+        <v>1498.580899449922</v>
       </c>
       <c r="O83" t="n">
-        <v>0.8273458357630261</v>
+        <v>2.852156938249891</v>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -6455,19 +6451,19 @@
         <v>17</v>
       </c>
       <c r="B84" t="n">
-        <v>6185741</v>
+        <v>54213657</v>
       </c>
       <c r="C84" t="n">
-        <v>1705329000</v>
+        <v>1711463400</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FG24051705329000</t>
+          <t>FG24051711463400</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-15 22:30:00</t>
+          <t>2024-03-26 22:30:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6476,34 +6472,34 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1741</v>
+        <v>1502</v>
       </c>
       <c r="H84" t="n">
-        <v>1744</v>
+        <v>1505</v>
       </c>
       <c r="I84" t="n">
-        <v>1737</v>
+        <v>1501</v>
       </c>
       <c r="J84" t="n">
-        <v>1742</v>
+        <v>1503</v>
       </c>
       <c r="K84" t="n">
-        <v>18318</v>
+        <v>14537</v>
       </c>
       <c r="L84" t="n">
-        <v>566766</v>
+        <v>705475</v>
       </c>
       <c r="M84" t="n">
-        <v>1739.587634542703</v>
+        <v>1501.955370925448</v>
       </c>
       <c r="N84" t="n">
-        <v>1738.362450345874</v>
+        <v>1499.384372277209</v>
       </c>
       <c r="O84" t="n">
-        <v>1.225184196828423</v>
+        <v>2.570998648239311</v>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -6527,19 +6523,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>6185742</v>
+        <v>54245339</v>
       </c>
       <c r="C85" t="n">
-        <v>1705329900</v>
+        <v>1711464300</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FG24051705329900</t>
+          <t>FG24051711464300</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-15 22:45:00</t>
+          <t>2024-03-26 22:45:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6548,34 +6544,34 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1742</v>
+        <v>1504</v>
       </c>
       <c r="H85" t="n">
-        <v>1743</v>
+        <v>1515</v>
       </c>
       <c r="I85" t="n">
-        <v>1737</v>
+        <v>1503</v>
       </c>
       <c r="J85" t="n">
-        <v>1740</v>
+        <v>1513</v>
       </c>
       <c r="K85" t="n">
-        <v>12346</v>
+        <v>63012</v>
       </c>
       <c r="L85" t="n">
-        <v>565817</v>
+        <v>705086</v>
       </c>
       <c r="M85" t="n">
-        <v>1739.725089695135</v>
+        <v>1505.636913950299</v>
       </c>
       <c r="N85" t="n">
-        <v>1738.660186646624</v>
+        <v>1501.85994095408</v>
       </c>
       <c r="O85" t="n">
-        <v>1.064903048510814</v>
+        <v>3.776972996218774</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -6599,19 +6595,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>6185743</v>
+        <v>54274977</v>
       </c>
       <c r="C86" t="n">
-        <v>1705330800</v>
+        <v>1711465200</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FG24051705330800</t>
+          <t>FG24051711465200</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-15 23:00:00</t>
+          <t>2024-03-26 23:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6620,34 +6616,34 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1740</v>
+        <v>1514</v>
       </c>
       <c r="H86" t="n">
-        <v>1742</v>
+        <v>1517</v>
       </c>
       <c r="I86" t="n">
-        <v>1737</v>
+        <v>1510</v>
       </c>
       <c r="J86" t="n">
-        <v>1741</v>
+        <v>1512</v>
       </c>
       <c r="K86" t="n">
-        <v>15558</v>
+        <v>49638</v>
       </c>
       <c r="L86" t="n">
-        <v>559530</v>
+        <v>699083</v>
       </c>
       <c r="M86" t="n">
-        <v>1740.150059796757</v>
+        <v>1507.757942633533</v>
       </c>
       <c r="N86" t="n">
-        <v>1739.085607256329</v>
+        <v>1503.703588053338</v>
       </c>
       <c r="O86" t="n">
-        <v>1.064452540427965</v>
+        <v>4.054354580194513</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -6671,19 +6667,19 @@
         <v>14</v>
       </c>
       <c r="B87" t="n">
-        <v>6292031</v>
+        <v>54309725</v>
       </c>
       <c r="C87" t="n">
-        <v>1705367700</v>
+        <v>1711502100</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FG24051705367700</t>
+          <t>FG24051711502100</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-16 09:15:00</t>
+          <t>2024-03-27 09:15:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6692,34 +6688,34 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1742</v>
+        <v>1512</v>
       </c>
       <c r="H87" t="n">
-        <v>1749</v>
+        <v>1512</v>
       </c>
       <c r="I87" t="n">
-        <v>1738</v>
+        <v>1502</v>
       </c>
       <c r="J87" t="n">
-        <v>1741</v>
+        <v>1505</v>
       </c>
       <c r="K87" t="n">
-        <v>46596</v>
+        <v>57570</v>
       </c>
       <c r="L87" t="n">
-        <v>560022</v>
+        <v>691636</v>
       </c>
       <c r="M87" t="n">
-        <v>1740.433373197838</v>
+        <v>1506.838628422355</v>
       </c>
       <c r="N87" t="n">
-        <v>1739.433678664269</v>
+        <v>1503.939299316367</v>
       </c>
       <c r="O87" t="n">
-        <v>0.999694533569027</v>
+        <v>2.899329105987817</v>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -6743,19 +6739,19 @@
         <v>13</v>
       </c>
       <c r="B88" t="n">
-        <v>6322691</v>
+        <v>54338341</v>
       </c>
       <c r="C88" t="n">
-        <v>1705368600</v>
+        <v>1711503000</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FG24051705368600</t>
+          <t>FG24051711503000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-16 09:30:00</t>
+          <t>2024-03-27 09:30:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6764,34 +6760,34 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1742</v>
+        <v>1504</v>
       </c>
       <c r="H88" t="n">
-        <v>1742</v>
+        <v>1506</v>
       </c>
       <c r="I88" t="n">
-        <v>1735</v>
+        <v>1493</v>
       </c>
       <c r="J88" t="n">
-        <v>1737</v>
+        <v>1498</v>
       </c>
       <c r="K88" t="n">
-        <v>25198</v>
+        <v>69247</v>
       </c>
       <c r="L88" t="n">
-        <v>561301</v>
+        <v>694738</v>
       </c>
       <c r="M88" t="n">
-        <v>1739.288915465226</v>
+        <v>1503.892418948237</v>
       </c>
       <c r="N88" t="n">
-        <v>1738.991191634402</v>
+        <v>1502.859426713391</v>
       </c>
       <c r="O88" t="n">
-        <v>0.2977238308237702</v>
+        <v>1.032992234845551</v>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -6815,19 +6811,19 @@
         <v>12</v>
       </c>
       <c r="B89" t="n">
-        <v>6351308</v>
+        <v>54370023</v>
       </c>
       <c r="C89" t="n">
-        <v>1705369500</v>
+        <v>1711503900</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FG24051705369500</t>
+          <t>FG24051711503900</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-16 09:45:00</t>
+          <t>2024-03-27 09:45:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6836,34 +6832,34 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1737</v>
+        <v>1498</v>
       </c>
       <c r="H89" t="n">
-        <v>1744</v>
+        <v>1500</v>
       </c>
       <c r="I89" t="n">
-        <v>1737</v>
+        <v>1496</v>
       </c>
       <c r="J89" t="n">
-        <v>1738</v>
+        <v>1499</v>
       </c>
       <c r="K89" t="n">
-        <v>17260</v>
+        <v>21427</v>
       </c>
       <c r="L89" t="n">
-        <v>564343</v>
+        <v>694995</v>
       </c>
       <c r="M89" t="n">
-        <v>1738.859276976817</v>
+        <v>1502.261612632158</v>
       </c>
       <c r="N89" t="n">
-        <v>1738.810974973601</v>
+        <v>1502.157712765502</v>
       </c>
       <c r="O89" t="n">
-        <v>0.04830200321566736</v>
+        <v>0.1038998666560929</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -6878,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V89" t="inlineStr"/>
     </row>
@@ -6887,19 +6883,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="n">
-        <v>6381968</v>
+        <v>54399661</v>
       </c>
       <c r="C90" t="n">
-        <v>1705370400</v>
+        <v>1711504800</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FG24051705370400</t>
+          <t>FG24051711504800</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-16 10:00:00</t>
+          <t>2024-03-27 10:00:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6908,34 +6904,34 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1738</v>
+        <v>1499</v>
       </c>
       <c r="H90" t="n">
-        <v>1745</v>
+        <v>1504</v>
       </c>
       <c r="I90" t="n">
-        <v>1736</v>
+        <v>1497</v>
       </c>
       <c r="J90" t="n">
-        <v>1743</v>
+        <v>1504</v>
       </c>
       <c r="K90" t="n">
-        <v>20972</v>
+        <v>17800</v>
       </c>
       <c r="L90" t="n">
-        <v>564030</v>
+        <v>694860</v>
       </c>
       <c r="M90" t="n">
-        <v>1740.239517984545</v>
+        <v>1502.841075088105</v>
       </c>
       <c r="N90" t="n">
-        <v>1739.572615887492</v>
+        <v>1502.492674080865</v>
       </c>
       <c r="O90" t="n">
-        <v>0.6669020970527981</v>
+        <v>0.348401007240227</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -6950,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V90" t="inlineStr"/>
     </row>
@@ -6959,19 +6955,19 @@
         <v>10</v>
       </c>
       <c r="B91" t="n">
-        <v>6408540</v>
+        <v>54430321</v>
       </c>
       <c r="C91" t="n">
-        <v>1705371300</v>
+        <v>1711505700</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FG24051705371300</t>
+          <t>FG24051711505700</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-16 10:15:00</t>
+          <t>2024-03-27 10:15:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6980,34 +6976,34 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1744</v>
+        <v>1503</v>
       </c>
       <c r="H91" t="n">
-        <v>1770</v>
+        <v>1505</v>
       </c>
       <c r="I91" t="n">
-        <v>1744</v>
+        <v>1495</v>
       </c>
       <c r="J91" t="n">
-        <v>1754</v>
+        <v>1497</v>
       </c>
       <c r="K91" t="n">
-        <v>134500</v>
+        <v>23723</v>
       </c>
       <c r="L91" t="n">
-        <v>563249</v>
+        <v>693431</v>
       </c>
       <c r="M91" t="n">
-        <v>1744.82634532303</v>
+        <v>1500.894050058737</v>
       </c>
       <c r="N91" t="n">
-        <v>1742.195776635221</v>
+        <v>1501.494006066162</v>
       </c>
       <c r="O91" t="n">
-        <v>2.6305686878095</v>
+        <v>0.5999560074253623</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -7022,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V91" t="inlineStr"/>
     </row>
@@ -7031,19 +7027,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>6469860</v>
+        <v>54490619</v>
       </c>
       <c r="C92" t="n">
-        <v>1705373100</v>
+        <v>1711507500</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FG24051705373100</t>
+          <t>FG24051711507500</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-16 10:45:00</t>
+          <t>2024-03-27 10:45:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7052,34 +7048,34 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1753</v>
+        <v>1497</v>
       </c>
       <c r="H92" t="n">
-        <v>1758</v>
+        <v>1502</v>
       </c>
       <c r="I92" t="n">
-        <v>1751</v>
+        <v>1495</v>
       </c>
       <c r="J92" t="n">
-        <v>1755</v>
+        <v>1501</v>
       </c>
       <c r="K92" t="n">
-        <v>37197</v>
+        <v>21929</v>
       </c>
       <c r="L92" t="n">
-        <v>553650</v>
+        <v>692831</v>
       </c>
       <c r="M92" t="n">
-        <v>1748.217563548687</v>
+        <v>1500.929366705825</v>
       </c>
       <c r="N92" t="n">
-        <v>1744.523817246999</v>
+        <v>1501.404186781406</v>
       </c>
       <c r="O92" t="n">
-        <v>3.693746301688407</v>
+        <v>0.4748200755809648</v>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -7094,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V92" t="inlineStr"/>
     </row>
@@ -7103,19 +7099,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="n">
-        <v>6498477</v>
+        <v>54521279</v>
       </c>
       <c r="C93" t="n">
-        <v>1705374000</v>
+        <v>1711508400</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FG24051705374000</t>
+          <t>FG24051711508400</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-16 11:00:00</t>
+          <t>2024-03-27 11:00:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7124,34 +7120,34 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1755</v>
+        <v>1502</v>
       </c>
       <c r="H93" t="n">
-        <v>1767</v>
+        <v>1502</v>
       </c>
       <c r="I93" t="n">
-        <v>1755</v>
+        <v>1493</v>
       </c>
       <c r="J93" t="n">
-        <v>1763</v>
+        <v>1496</v>
       </c>
       <c r="K93" t="n">
-        <v>55815</v>
+        <v>24181</v>
       </c>
       <c r="L93" t="n">
-        <v>553007</v>
+        <v>689775</v>
       </c>
       <c r="M93" t="n">
-        <v>1753.145042365792</v>
+        <v>1499.28624447055</v>
       </c>
       <c r="N93" t="n">
-        <v>1747.88312320209</v>
+        <v>1500.421607366604</v>
       </c>
       <c r="O93" t="n">
-        <v>5.261919163702032</v>
+        <v>1.13536289605463</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -7166,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V93" t="inlineStr"/>
     </row>
@@ -7175,19 +7171,19 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>6529137</v>
+        <v>54551939</v>
       </c>
       <c r="C94" t="n">
-        <v>1705374900</v>
+        <v>1711509300</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FG24051705374900</t>
+          <t>FG24051711509300</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-16 11:15:00</t>
+          <t>2024-03-27 11:15:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7196,34 +7192,34 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1763</v>
+        <v>1495</v>
       </c>
       <c r="H94" t="n">
-        <v>1765</v>
+        <v>1498</v>
       </c>
       <c r="I94" t="n">
-        <v>1757</v>
+        <v>1493</v>
       </c>
       <c r="J94" t="n">
-        <v>1761</v>
+        <v>1495</v>
       </c>
       <c r="K94" t="n">
-        <v>23160</v>
+        <v>24206</v>
       </c>
       <c r="L94" t="n">
-        <v>550803</v>
+        <v>690028</v>
       </c>
       <c r="M94" t="n">
-        <v>1755.763361577194</v>
+        <v>1497.8574963137</v>
       </c>
       <c r="N94" t="n">
-        <v>1750.268009892619</v>
+        <v>1499.435860572676</v>
       </c>
       <c r="O94" t="n">
-        <v>5.49535168457578</v>
+        <v>1.578364258976308</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -7238,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V94" t="inlineStr"/>
     </row>
@@ -7247,19 +7243,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="n">
-        <v>6557753</v>
+        <v>54582599</v>
       </c>
       <c r="C95" t="n">
-        <v>1705375800</v>
+        <v>1711510200</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FG24051705375800</t>
+          <t>FG24051711510200</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-16 11:30:00</t>
+          <t>2024-03-27 11:30:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7268,34 +7264,34 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1762</v>
+        <v>1495</v>
       </c>
       <c r="H95" t="n">
-        <v>1765</v>
+        <v>1496</v>
       </c>
       <c r="I95" t="n">
-        <v>1745</v>
+        <v>1491</v>
       </c>
       <c r="J95" t="n">
-        <v>1752</v>
+        <v>1495</v>
       </c>
       <c r="K95" t="n">
-        <v>60231</v>
+        <v>30157</v>
       </c>
       <c r="L95" t="n">
-        <v>549452</v>
+        <v>687901</v>
       </c>
       <c r="M95" t="n">
-        <v>1754.50890771813</v>
+        <v>1496.904997542467</v>
       </c>
       <c r="N95" t="n">
-        <v>1750.58291718487</v>
+        <v>1498.629340468553</v>
       </c>
       <c r="O95" t="n">
-        <v>3.925990533260119</v>
+        <v>1.724342926086365</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -7310,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V95" t="inlineStr"/>
     </row>
@@ -7319,19 +7315,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="n">
-        <v>6752955</v>
+        <v>54613259</v>
       </c>
       <c r="C96" t="n">
-        <v>1705383900</v>
+        <v>1711518300</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FG24051705383900</t>
+          <t>FG24051711518300</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-16 13:45:00</t>
+          <t>2024-03-27 13:45:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7340,34 +7336,34 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1753</v>
+        <v>1494</v>
       </c>
       <c r="H96" t="n">
-        <v>1758</v>
+        <v>1496</v>
       </c>
       <c r="I96" t="n">
-        <v>1749</v>
+        <v>1488</v>
       </c>
       <c r="J96" t="n">
-        <v>1750</v>
+        <v>1493</v>
       </c>
       <c r="K96" t="n">
-        <v>33300</v>
+        <v>31148</v>
       </c>
       <c r="L96" t="n">
-        <v>535814</v>
+        <v>685029</v>
       </c>
       <c r="M96" t="n">
-        <v>1753.005938478753</v>
+        <v>1495.603331694978</v>
       </c>
       <c r="N96" t="n">
-        <v>1750.476932242166</v>
+        <v>1497.605824019725</v>
       </c>
       <c r="O96" t="n">
-        <v>2.529006236587065</v>
+        <v>2.002492324747209</v>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -7382,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V96" t="inlineStr"/>
     </row>
@@ -7391,19 +7387,19 @@
         <v>4</v>
       </c>
       <c r="B97" t="n">
-        <v>6781571</v>
+        <v>54640853</v>
       </c>
       <c r="C97" t="n">
-        <v>1705384800</v>
+        <v>1711519200</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FG24051705384800</t>
+          <t>FG24051711519200</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-16 14:00:00</t>
+          <t>2024-03-27 14:00:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7412,34 +7408,34 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1751</v>
+        <v>1493</v>
       </c>
       <c r="H97" t="n">
-        <v>1755</v>
+        <v>1497</v>
       </c>
       <c r="I97" t="n">
-        <v>1745</v>
+        <v>1490</v>
       </c>
       <c r="J97" t="n">
-        <v>1748</v>
+        <v>1490</v>
       </c>
       <c r="K97" t="n">
-        <v>33353</v>
+        <v>20088</v>
       </c>
       <c r="L97" t="n">
-        <v>534553</v>
+        <v>685165</v>
       </c>
       <c r="M97" t="n">
-        <v>1751.337292319169</v>
+        <v>1493.735554463319</v>
       </c>
       <c r="N97" t="n">
-        <v>1750.026580925409</v>
+        <v>1496.22294692523</v>
       </c>
       <c r="O97" t="n">
-        <v>1.310711393760585</v>
+        <v>2.487392461910986</v>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -7454,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V97" t="inlineStr"/>
     </row>
@@ -7463,19 +7459,19 @@
         <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>6812231</v>
+        <v>54672535</v>
       </c>
       <c r="C98" t="n">
-        <v>1705385700</v>
+        <v>1711520100</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FG24051705385700</t>
+          <t>FG24051711520100</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-16 14:15:00</t>
+          <t>2024-03-27 14:15:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7484,34 +7480,34 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1748</v>
+        <v>1490</v>
       </c>
       <c r="H98" t="n">
-        <v>1750</v>
+        <v>1491</v>
       </c>
       <c r="I98" t="n">
-        <v>1741</v>
+        <v>1478</v>
       </c>
       <c r="J98" t="n">
-        <v>1746</v>
+        <v>1479</v>
       </c>
       <c r="K98" t="n">
-        <v>33599</v>
+        <v>65674</v>
       </c>
       <c r="L98" t="n">
-        <v>537485</v>
+        <v>684947</v>
       </c>
       <c r="M98" t="n">
-        <v>1749.558194879446</v>
+        <v>1488.823702975546</v>
       </c>
       <c r="N98" t="n">
-        <v>1749.294475302607</v>
+        <v>1493.091502029733</v>
       </c>
       <c r="O98" t="n">
-        <v>0.2637195768393212</v>
+        <v>4.267799054187435</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -7526,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V98" t="inlineStr"/>
     </row>
@@ -7535,19 +7531,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>6844935</v>
+        <v>54703195</v>
       </c>
       <c r="C99" t="n">
-        <v>1705386600</v>
+        <v>1711521000</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FG24051705386600</t>
+          <t>FG24051711521000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-16 14:30:00</t>
+          <t>2024-03-27 14:30:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7556,34 +7552,34 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1746</v>
+        <v>1479</v>
       </c>
       <c r="H99" t="n">
-        <v>1752</v>
+        <v>1484</v>
       </c>
       <c r="I99" t="n">
-        <v>1736</v>
+        <v>1476</v>
       </c>
       <c r="J99" t="n">
-        <v>1740</v>
+        <v>1482</v>
       </c>
       <c r="K99" t="n">
-        <v>50147</v>
+        <v>40002</v>
       </c>
       <c r="L99" t="n">
-        <v>535452</v>
+        <v>685931</v>
       </c>
       <c r="M99" t="n">
-        <v>1746.372129919631</v>
+        <v>1486.549135317031</v>
       </c>
       <c r="N99" t="n">
-        <v>1747.604570702133</v>
+        <v>1491.074865297055</v>
       </c>
       <c r="O99" t="n">
-        <v>1.232440782501953</v>
+        <v>4.525729980023925</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -7607,19 +7603,19 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>6871507</v>
+        <v>54729767</v>
       </c>
       <c r="C100" t="n">
-        <v>1705387500</v>
+        <v>1711521900</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FG24051705387500</t>
+          <t>FG24051711521900</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-16 14:45:00</t>
+          <t>2024-03-27 14:45:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7628,34 +7624,34 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1740</v>
+        <v>1482</v>
       </c>
       <c r="H100" t="n">
-        <v>1744</v>
+        <v>1483</v>
       </c>
       <c r="I100" t="n">
-        <v>1734</v>
+        <v>1468</v>
       </c>
       <c r="J100" t="n">
-        <v>1744</v>
+        <v>1471</v>
       </c>
       <c r="K100" t="n">
-        <v>44875</v>
+        <v>63931</v>
       </c>
       <c r="L100" t="n">
-        <v>535179</v>
+        <v>681694</v>
       </c>
       <c r="M100" t="n">
-        <v>1745.581419946421</v>
+        <v>1481.366090211354</v>
       </c>
       <c r="N100" t="n">
-        <v>1746.949194210836</v>
+        <v>1487.424889788499</v>
       </c>
       <c r="O100" t="n">
-        <v>1.367774264415402</v>
+        <v>6.058799577145464</v>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -7679,19 +7675,19 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>6902167</v>
+        <v>54760427</v>
       </c>
       <c r="C101" t="n">
-        <v>1705388400</v>
+        <v>1711522800</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FG24051705388400</t>
+          <t>FG24051711522800</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-01-16 15:00:00</t>
+          <t>2024-03-27 15:00:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7700,34 +7696,34 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1745</v>
+        <v>1470</v>
       </c>
       <c r="H101" t="n">
-        <v>1752</v>
+        <v>1474</v>
       </c>
       <c r="I101" t="n">
-        <v>1740</v>
+        <v>1468</v>
       </c>
       <c r="J101" t="n">
-        <v>1750</v>
+        <v>1472</v>
       </c>
       <c r="K101" t="n">
-        <v>44575</v>
+        <v>40042</v>
       </c>
       <c r="L101" t="n">
-        <v>528280</v>
+        <v>682844</v>
       </c>
       <c r="M101" t="n">
-        <v>1747.054279964281</v>
+        <v>1478.244060140903</v>
       </c>
       <c r="N101" t="n">
-        <v>1747.503886172502</v>
+        <v>1484.620364372408</v>
       </c>
       <c r="O101" t="n">
-        <v>0.4496062082216667</v>
+        <v>6.376304231505856</v>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
